--- a/field_study/field_study_couplets.xlsx
+++ b/field_study/field_study_couplets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="227">
   <si>
     <t>NS Order</t>
   </si>
@@ -89,24 +89,6 @@
     <t>Alongshore_Length_m_2000</t>
   </si>
   <si>
-    <t>Municipality_2020</t>
-  </si>
-  <si>
-    <t>Muni_acronym_2020</t>
-  </si>
-  <si>
-    <t>Area_m2_2020</t>
-  </si>
-  <si>
-    <t>NS_Order_2020</t>
-  </si>
-  <si>
-    <t>Avg_Beach_Width_m_2020</t>
-  </si>
-  <si>
-    <t>Alongshore_Length_m_2020</t>
-  </si>
-  <si>
     <t>PSDS Nourishment Data</t>
   </si>
   <si>
@@ -674,18 +656,6 @@
     <t>Reference_Value_Efficiency</t>
   </si>
   <si>
-    <t>Municipality_1999</t>
-  </si>
-  <si>
-    <t>North_South_Order_1999</t>
-  </si>
-  <si>
-    <t>Alongshore_Length_m_1999</t>
-  </si>
-  <si>
-    <t>Avg_Beach_Width_m_1999</t>
-  </si>
-  <si>
     <t>Passive_Eff</t>
   </si>
   <si>
@@ -708,6 +678,33 @@
   </si>
   <si>
     <t>1999 Beach Data</t>
+  </si>
+  <si>
+    <t>Municipali</t>
+  </si>
+  <si>
+    <t>Muni_acron</t>
+  </si>
+  <si>
+    <t>North_Sout</t>
+  </si>
+  <si>
+    <t>Alongshore_Length</t>
+  </si>
+  <si>
+    <t>Area_1999</t>
+  </si>
+  <si>
+    <t>Avg_Width_1999</t>
+  </si>
+  <si>
+    <t>Area_m2_20</t>
+  </si>
+  <si>
+    <t>NS_Order_2</t>
+  </si>
+  <si>
+    <t>Avg_Beach_Width_2020</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GP23"/>
+  <dimension ref="A1:GQ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="GF1" sqref="GF1:GF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
+      <selection activeCell="DE3" sqref="DE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,25 +1206,25 @@
     <col min="71" max="71" width="11.42578125" style="16" customWidth="1"/>
     <col min="72" max="92" width="11.28515625" style="10" customWidth="1"/>
     <col min="93" max="93" width="9.140625" style="9"/>
-    <col min="94" max="98" width="9.140625" style="10"/>
-    <col min="99" max="99" width="9.140625" style="9"/>
-    <col min="100" max="105" width="9.140625" style="10"/>
-    <col min="106" max="106" width="9.140625" style="9"/>
-    <col min="107" max="107" width="14.5703125" style="10" customWidth="1"/>
-    <col min="108" max="110" width="9.140625" style="10"/>
-    <col min="111" max="111" width="7.28515625" style="10" customWidth="1"/>
-    <col min="112" max="112" width="9.140625" style="10"/>
-    <col min="113" max="113" width="9.140625" style="9"/>
-    <col min="114" max="147" width="12.7109375" style="10" customWidth="1"/>
-    <col min="148" max="151" width="9.140625" style="10"/>
-    <col min="152" max="152" width="5.28515625" style="18" customWidth="1"/>
-    <col min="153" max="187" width="10.5703125" style="10" customWidth="1"/>
-    <col min="188" max="188" width="5.28515625" style="18" customWidth="1"/>
-    <col min="189" max="198" width="8.42578125" style="10" customWidth="1"/>
-    <col min="199" max="16384" width="9.140625" style="10"/>
+    <col min="94" max="99" width="9.140625" style="10"/>
+    <col min="100" max="100" width="9.140625" style="9"/>
+    <col min="101" max="106" width="9.140625" style="10"/>
+    <col min="107" max="107" width="9.140625" style="9"/>
+    <col min="108" max="108" width="14.5703125" style="10" customWidth="1"/>
+    <col min="109" max="111" width="9.140625" style="10"/>
+    <col min="112" max="112" width="7.28515625" style="10" customWidth="1"/>
+    <col min="113" max="113" width="9.140625" style="10"/>
+    <col min="114" max="114" width="9.140625" style="9"/>
+    <col min="115" max="148" width="12.7109375" style="10" customWidth="1"/>
+    <col min="149" max="152" width="9.140625" style="10"/>
+    <col min="153" max="153" width="5.28515625" style="18" customWidth="1"/>
+    <col min="154" max="188" width="10.5703125" style="10" customWidth="1"/>
+    <col min="189" max="189" width="5.28515625" style="18" customWidth="1"/>
+    <col min="190" max="199" width="8.42578125" style="10" customWidth="1"/>
+    <col min="200" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:198" s="2" customFormat="1" ht="196.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:199" s="2" customFormat="1" ht="196.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,28 +1235,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1271,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -1280,16 +1277,16 @@
         <v>7</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>9</v>
@@ -1373,491 +1370,494 @@
         <v>44043</v>
       </c>
       <c r="AW1" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO1" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="CV1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="DC1" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="DF1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BS1" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CO1" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="CP1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="CR1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="CS1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="CT1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="CU1" s="17" t="s">
+      <c r="DG1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="CV1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="CW1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="CX1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="CY1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="CZ1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="DA1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="DB1" s="17" t="s">
+      <c r="DH1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="DJ1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DK1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DL1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DM1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DN1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DO1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="DI1" s="17" t="s">
+      <c r="DP1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EH1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EM1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="ES1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="ET1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EU1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EV1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EW1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="EX1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="ER1" s="5" t="s">
+      <c r="EY1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="ES1" s="5" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="ET1" s="5" t="s">
+      <c r="FA1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="EU1" s="5" t="s">
+      <c r="FB1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="EV1" s="19" t="s">
+      <c r="FC1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="FE1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="FF1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FG1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FI1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FK1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FL1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FM1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FN1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="FP1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="FN1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GG1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GI1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GL1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="GF1" s="19" t="s">
+      <c r="GM1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GN1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GO1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GP1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="GK1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="GL1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="GM1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="GN1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="GO1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP1" s="2" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="2" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N2" s="6">
         <v>10</v>
       </c>
       <c r="O2" s="7">
-        <f>DG2-CT2</f>
-        <v>-10.715546099785499</v>
+        <f>DH2-CU2</f>
+        <v>-10.299784729214295</v>
       </c>
       <c r="P2" s="7">
-        <f t="shared" ref="P2:P23" si="0">DG2-CZ2</f>
-        <v>-5.0333239513104928</v>
+        <f t="shared" ref="P2:P23" si="0">DH2-DA2</f>
+        <v>-4.5539686571009952</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q23" si="1">(2*ES2)/$N2/$DA2</f>
+        <f t="shared" ref="Q2:Q23" si="1">(2*ET2)/$N2/$DB2</f>
         <v>130.36319434637471</v>
       </c>
       <c r="R2" s="6">
         <f>IF(AND(Q2=0,O2&gt;0),U2,IF(AND(Q2=0,O2&lt;=0),"NaN",(O2+T2)/(Q2+T2)))</f>
-        <v>0.73399598247003706</v>
+        <v>0.73477990068872789</v>
       </c>
       <c r="S2" s="6">
         <f>IF(AND(Q2=0,P2&gt;0),U2,IF(AND(Q2=0,P2&lt;=0),"NaN",(P2+T2)/(Q2+T2)))</f>
-        <v>0.74470981444225348</v>
+        <v>0.74561363902759303</v>
       </c>
       <c r="T2" s="6">
         <v>400</v>
@@ -1866,7 +1866,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="V2" s="6">
-        <f t="shared" ref="V2:V23" si="2">COUNT(DJ2:EN2)</f>
+        <f t="shared" ref="V2:V23" si="2">COUNT(DK2:EO2)</f>
         <v>4</v>
       </c>
       <c r="W2" s="6">
@@ -2096,160 +2096,163 @@
       </c>
       <c r="CO2" s="9"/>
       <c r="CP2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="CQ2" s="10">
+        <v>106</v>
+      </c>
+      <c r="CQ2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="CR2" s="10">
         <v>1</v>
       </c>
-      <c r="CR2" s="10">
+      <c r="CS2" s="10">
         <v>5964.3263999999999</v>
       </c>
-      <c r="CS2" s="10">
-        <v>592895</v>
-      </c>
       <c r="CT2" s="10">
+        <v>591755</v>
+      </c>
+      <c r="CU2" s="10">
         <v>99</v>
       </c>
-      <c r="CU2" s="9"/>
-      <c r="CV2" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="CV2" s="9"/>
       <c r="CW2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="CX2" s="10">
+        <v>106</v>
+      </c>
+      <c r="CX2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY2" s="10">
         <v>1</v>
       </c>
-      <c r="CY2" s="10">
-        <v>556577.68602918601</v>
-      </c>
       <c r="CZ2" s="10">
-        <v>93.317777851524994</v>
+        <v>556198.39111155004</v>
       </c>
       <c r="DA2" s="10">
+        <v>93.2541839278867</v>
+      </c>
+      <c r="DB2" s="10">
         <v>5964.3263999999999</v>
       </c>
-      <c r="DB2" s="9"/>
-      <c r="DC2" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="DC2" s="9"/>
       <c r="DD2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="DE2" s="11">
-        <v>526557.28225679905</v>
-      </c>
-      <c r="DF2" s="10">
+        <v>106</v>
+      </c>
+      <c r="DE2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF2" s="11">
+        <v>529037.01869604597</v>
+      </c>
+      <c r="DG2" s="10">
         <v>1</v>
       </c>
-      <c r="DG2" s="11">
-        <v>88.284453900214501</v>
-      </c>
       <c r="DH2" s="11">
+        <v>88.700215270785705</v>
+      </c>
+      <c r="DI2" s="11">
         <v>5964.32620914156</v>
       </c>
-      <c r="DI2" s="9"/>
-      <c r="DL2" s="8">
-        <f>2100000*($DH$2/($DH$2+$DH$3))</f>
+      <c r="DJ2" s="9"/>
+      <c r="DM2" s="8">
+        <f>2100000*($DI$2/($DI$2+$DI$3))</f>
         <v>1453686.1468798644</v>
       </c>
-      <c r="DT2" s="8"/>
       <c r="DU2" s="8"/>
       <c r="DV2" s="8"/>
       <c r="DW2" s="8"/>
       <c r="DX2" s="8"/>
-      <c r="EB2" s="6">
-        <f>2460000*($DH$2/($DH$2+$DH$3))</f>
+      <c r="DY2" s="8"/>
+      <c r="EC2" s="6">
+        <f>2460000*($DI$2/($DI$2+$DI$3))</f>
         <v>1702889.486344984</v>
       </c>
-      <c r="EH2" s="6">
-        <f t="shared" ref="EH2:EH15" si="3">8000000*($DH2/(SUM($DH$2:$DH$15)))</f>
+      <c r="EI2" s="6">
+        <f t="shared" ref="EI2:EI15" si="3">8000000*($DI2/(SUM($DI$2:$DI$15)))</f>
         <v>1428347.2326137358</v>
       </c>
-      <c r="EN2" s="6">
-        <f t="shared" ref="EN2:EN15" si="4">2800000*($DH2/(SUM($DH$2:$DH$15)))</f>
+      <c r="EO2" s="6">
+        <f t="shared" ref="EO2:EO15" si="4">2800000*($DI2/(SUM($DI$2:$DI$15)))</f>
         <v>499921.53141480754</v>
       </c>
-      <c r="ER2" s="6">
-        <f t="shared" ref="ER2:ER15" si="5">SUM(DJ2:EN2)</f>
+      <c r="ES2" s="6">
+        <f t="shared" ref="ES2:ES15" si="5">SUM(DK2:EO2)</f>
         <v>5084844.3972533923</v>
       </c>
-      <c r="ES2" s="6">
-        <f>ER2*0.764555</f>
+      <c r="ET2" s="6">
+        <f>ES2*0.764555</f>
         <v>3887643.2081420673</v>
       </c>
-      <c r="ET2" s="6">
-        <f t="shared" ref="ET2:ET23" si="6">ER2/SUM(ER$2:ER$23)</f>
+      <c r="EU2" s="6">
+        <f t="shared" ref="EU2:EU23" si="6">ES2/SUM(ES$2:ES$23)</f>
         <v>9.7393486615645203E-2</v>
       </c>
-      <c r="EU2" s="6">
-        <f t="shared" ref="EU2:EU23" si="7">ES2/DH2</f>
+      <c r="EV2" s="6">
+        <f t="shared" ref="EV2:EV23" si="7">ET2/DI2</f>
         <v>651.81599258998483</v>
       </c>
-      <c r="EV2" s="18"/>
-      <c r="EY2" s="6">
-        <f>25590800*($DH$2/($DH$2+$DH$3))</f>
+      <c r="EW2" s="18"/>
+      <c r="EZ2" s="6">
+        <f>25590800*($DI$2/($DI$2+$DI$3))</f>
         <v>17714757.832177732</v>
       </c>
-      <c r="FP2" s="6">
-        <f>25590800*($DH$2/($DH$2+$DH$3))</f>
+      <c r="FQ2" s="6">
+        <f>25590800*($DI$2/($DI$2+$DI$3))</f>
         <v>17714757.832177732</v>
       </c>
-      <c r="GB2" s="6">
-        <f t="shared" ref="GB2:GB15" si="8">55100000*($DH2/(SUM($DH$2:$DH$15)))</f>
+      <c r="GC2" s="6">
+        <f t="shared" ref="GC2:GC15" si="8">55100000*($DI2/(SUM($DI$2:$DI$15)))</f>
         <v>9837741.5646271054</v>
       </c>
-      <c r="GF2" s="18"/>
-      <c r="GG2" s="6">
-        <f>FS2+FT2</f>
-        <v>0</v>
-      </c>
+      <c r="GG2" s="18"/>
       <c r="GH2" s="6">
-        <f>FU2</f>
+        <f>FT2+FU2</f>
         <v>0</v>
       </c>
       <c r="GI2" s="6">
-        <f>FV2+FW2</f>
+        <f>FV2</f>
         <v>0</v>
       </c>
       <c r="GJ2" s="6">
-        <f>FX2</f>
+        <f>FW2+FX2</f>
         <v>0</v>
       </c>
       <c r="GK2" s="6">
-        <f>FY2+FZ2</f>
+        <f>FY2</f>
         <v>0</v>
       </c>
       <c r="GL2" s="6">
-        <f>GA2</f>
+        <f>FZ2+GA2</f>
         <v>0</v>
       </c>
       <c r="GM2" s="6">
         <f>GB2</f>
-        <v>9837741.5646271054</v>
+        <v>0</v>
       </c>
       <c r="GN2" s="6">
         <f>GC2</f>
-        <v>0</v>
+        <v>9837741.5646271054</v>
       </c>
       <c r="GO2" s="6">
         <f>GD2</f>
         <v>0</v>
       </c>
       <c r="GP2" s="6">
-        <f>SUM(EW2:GB2)</f>
+        <f>GE2</f>
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="6">
+        <f>SUM(EX2:GC2)</f>
         <v>45267257.228982568</v>
       </c>
     </row>
-    <row r="3" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>C3&amp;"/"&amp;C2</f>
@@ -2260,43 +2263,43 @@
         <v>33173.918904179358</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F15" si="9">IF(Z3&gt;Z2,EU3-EU2,EU2-EU3)</f>
+        <f t="shared" ref="F3:F15" si="9">IF(Z3&gt;Z2,EV3-EV2,EV2-EV3)</f>
         <v>247.95506419908065</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G15" si="10">IF(Z3&gt;Z2,DG3-DG2,DG2-DG3)</f>
-        <v>-8.5429890651072071</v>
+        <f t="shared" ref="G3:G15" si="10">IF(Z3&gt;Z2,DH3-DH2,DH2-DH3)</f>
+        <v>-8.9587504293601086</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" ref="H3:H15" si="11">IF(Z3&gt;Z2,CZ3-CZ2,CZ2-CZ3)</f>
-        <v>11.313583748068012</v>
+        <f t="shared" ref="H3:H15" si="11">IF(Z3&gt;Z2,DA3-DA2,DA2-DA3)</f>
+        <v>11.377177663911297</v>
       </c>
       <c r="I3" s="10">
         <f>IF(Z3&gt;Z2,S3-S2,S2-S3)</f>
-        <v>-9.7917189069521626E-2</v>
+        <v>-9.8821013630525978E-2</v>
       </c>
       <c r="J3" s="10">
         <f>IF(Z3&gt;Z2,R3-R2,R2-R3)</f>
-        <v>-7.232052408004308E-2</v>
+        <v>-7.3104442287839522E-2</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" ref="K3:K15" si="12">IF(Z3&gt;Z2,P3-P2,P2-P3)</f>
-        <v>-19.856572813175219</v>
+        <v>-20.335928093271406</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N3" s="10">
         <f>N2</f>
         <v>10</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O23" si="13">DG3-CT3</f>
-        <v>-16.258535164892706</v>
+        <f t="shared" ref="O3:O23" si="13">DH3-CU3</f>
+        <v>-16.258535158574404</v>
       </c>
       <c r="P3" s="10">
         <f t="shared" si="0"/>
-        <v>-24.889896764485712</v>
+        <v>-24.889896750372401</v>
       </c>
       <c r="Q3" s="10">
         <f t="shared" si="1"/>
@@ -2304,11 +2307,11 @@
       </c>
       <c r="R3" s="10">
         <f t="shared" ref="R3:R23" si="14">IF(AND(Q3=0,O3&gt;0),U3,IF(AND(Q3=0,O3&lt;=0),"NaN",(O3+T3)/(Q3+T3)))</f>
-        <v>0.66167545838999398</v>
+        <v>0.66167545840088837</v>
       </c>
       <c r="S3" s="6">
         <f t="shared" ref="S3:S23" si="15">IF(AND(Q3=0,P3&gt;0),U3,IF(AND(Q3=0,P3&lt;=0),"NaN",(P3+T3)/(Q3+T3)))</f>
-        <v>0.64679262537273186</v>
+        <v>0.64679262539706706</v>
       </c>
       <c r="T3" s="6">
         <v>400</v>
@@ -2543,166 +2546,169 @@
         <v>657640.34498000704</v>
       </c>
       <c r="CP3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="CQ3" s="10">
+        <v>109</v>
+      </c>
+      <c r="CQ3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="CR3" s="10">
         <v>2</v>
       </c>
-      <c r="CR3" s="10">
+      <c r="CS3" s="10">
         <v>2651.76</v>
       </c>
-      <c r="CS3" s="10">
+      <c r="CT3" s="10">
         <v>253333</v>
       </c>
-      <c r="CT3" s="10">
+      <c r="CU3" s="10">
         <v>96</v>
       </c>
-      <c r="CV3" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="CW3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="CX3" s="10">
+        <v>109</v>
+      </c>
+      <c r="CX3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY3" s="10">
         <v>2</v>
       </c>
-      <c r="CY3" s="10">
-        <v>277457.25943533902</v>
-      </c>
       <c r="CZ3" s="10">
-        <v>104.63136159959301</v>
+        <v>277457.25941466697</v>
       </c>
       <c r="DA3" s="10">
+        <v>104.631361591798</v>
+      </c>
+      <c r="DB3" s="10">
         <v>2651.76</v>
       </c>
-      <c r="DC3" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="DD3" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="DE3" s="11">
-        <v>211455.22002457699</v>
-      </c>
-      <c r="DF3" s="10">
+        <v>109</v>
+      </c>
+      <c r="DE3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="DF3" s="11">
+        <v>211455.22004133099</v>
+      </c>
+      <c r="DG3" s="10">
         <v>2</v>
       </c>
-      <c r="DG3" s="11">
-        <v>79.741464835107294</v>
-      </c>
       <c r="DH3" s="11">
+        <v>79.741464841425596</v>
+      </c>
+      <c r="DI3" s="11">
         <v>2651.7599151436798</v>
       </c>
-      <c r="DL3" s="11">
-        <f>2100000*($DH$3/($DH$3+$DH$2))</f>
+      <c r="DM3" s="11">
+        <f>2100000*($DI$3/($DI$3+$DI$2))</f>
         <v>646313.85312013538</v>
       </c>
-      <c r="DT3" s="11"/>
-      <c r="DU3" s="11">
+      <c r="DU3" s="11"/>
+      <c r="DV3" s="11">
         <v>60000</v>
       </c>
-      <c r="DV3" s="11"/>
       <c r="DW3" s="11"/>
       <c r="DX3" s="11"/>
-      <c r="EA3" s="10">
+      <c r="DY3" s="11"/>
+      <c r="EB3" s="10">
         <v>800000</v>
       </c>
-      <c r="EB3" s="10">
-        <f>2460000*($DH$3/($DH$3+$DH$2))</f>
+      <c r="EC3" s="10">
+        <f>2460000*($DI$3/($DI$3+$DI$2))</f>
         <v>757110.51365501585</v>
       </c>
-      <c r="EH3" s="10">
+      <c r="EI3" s="10">
         <f t="shared" si="3"/>
         <v>635048.08481906634</v>
       </c>
-      <c r="EN3" s="10">
+      <c r="EO3" s="10">
         <f t="shared" si="4"/>
         <v>222266.82968667324</v>
       </c>
-      <c r="ER3" s="10">
+      <c r="ES3" s="10">
         <f t="shared" si="5"/>
         <v>3120739.281280891</v>
       </c>
-      <c r="ES3" s="10">
-        <f t="shared" ref="ES3:ES23" si="40">ER3*0.764555</f>
+      <c r="ET3" s="10">
+        <f t="shared" ref="ET3:ET23" si="40">ES3*0.764555</f>
         <v>2385976.8211997114</v>
       </c>
-      <c r="ET3" s="10">
+      <c r="EU3" s="10">
         <f t="shared" si="6"/>
         <v>5.9773644123018478E-2</v>
       </c>
-      <c r="EU3" s="10">
+      <c r="EV3" s="10">
         <f t="shared" si="7"/>
         <v>899.77105678906548</v>
       </c>
-      <c r="EY3" s="10">
-        <f>25590800*($DH$3/($DH$3+$DH$2))</f>
+      <c r="EZ3" s="10">
+        <f>25590800*($DI$3/($DI$3+$DI$2))</f>
         <v>7876042.1678222679</v>
       </c>
-      <c r="FH3" s="10">
+      <c r="FI3" s="10">
         <v>2550000</v>
       </c>
-      <c r="FO3" s="10">
+      <c r="FP3" s="10">
         <v>18461538</v>
       </c>
-      <c r="FP3" s="10">
-        <f>25590800*($DH$3/($DH$3+$DH$2))</f>
+      <c r="FQ3" s="10">
+        <f>25590800*($DI$3/($DI$3+$DI$2))</f>
         <v>7876042.1678222679</v>
       </c>
-      <c r="GB3" s="10">
+      <c r="GC3" s="10">
         <f t="shared" si="8"/>
         <v>4373893.6841913201</v>
       </c>
-      <c r="GG3" s="10">
-        <f t="shared" ref="GG3:GG15" si="41">FS3+FT3</f>
-        <v>0</v>
-      </c>
       <c r="GH3" s="10">
-        <f t="shared" ref="GH3:GH15" si="42">FU3</f>
+        <f t="shared" ref="GH3:GH15" si="41">FT3+FU3</f>
         <v>0</v>
       </c>
       <c r="GI3" s="10">
-        <f t="shared" ref="GI3:GI15" si="43">FV3+FW3</f>
+        <f t="shared" ref="GI3:GI15" si="42">FV3</f>
         <v>0</v>
       </c>
       <c r="GJ3" s="10">
-        <f t="shared" ref="GJ3:GJ15" si="44">FX3</f>
+        <f t="shared" ref="GJ3:GJ15" si="43">FW3+FX3</f>
         <v>0</v>
       </c>
       <c r="GK3" s="10">
-        <f t="shared" ref="GK3:GK15" si="45">FY3+FZ3</f>
+        <f t="shared" ref="GK3:GK15" si="44">FY3</f>
         <v>0</v>
       </c>
       <c r="GL3" s="10">
-        <f t="shared" ref="GL3:GO15" si="46">GA3</f>
+        <f t="shared" ref="GL3:GL15" si="45">FZ3+GA3</f>
         <v>0</v>
       </c>
       <c r="GM3" s="10">
+        <f t="shared" ref="GM3:GP15" si="46">GB3</f>
+        <v>0</v>
+      </c>
+      <c r="GN3" s="10">
         <f t="shared" si="46"/>
         <v>4373893.6841913201</v>
       </c>
-      <c r="GN3" s="10">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="GO3" s="10">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP3" s="10">
-        <f t="shared" ref="GP3:GP15" si="47">SUM(EW3:GB3)</f>
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="10">
+        <f t="shared" ref="GQ3:GQ15" si="47">SUM(EX3:GC3)</f>
         <v>41137516.01983586</v>
       </c>
     </row>
-    <row r="4" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" ref="D4:D23" si="48">C4&amp;"/"&amp;C3</f>
@@ -2718,26 +2724,26 @@
       </c>
       <c r="G4" s="10">
         <f t="shared" si="10"/>
-        <v>-5.8298672470789086</v>
+        <v>-5.8298672436120995</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="11"/>
-        <v>7.9250792684411095</v>
+        <v>7.6599223176892934</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" ref="I3:I15" si="50">IF(Z4&gt;Z3,S4-S3,S3-S4)</f>
-        <v>-5.168989274659852E-2</v>
+        <f t="shared" ref="I4:I15" si="50">IF(Z4&gt;Z3,S4-S3,S3-S4)</f>
+        <v>-5.1213615701892978E-2</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" ref="J4:J15" si="51">IF(Z4&gt;Z3,R4-R3,R3-R4)</f>
-        <v>-4.5260521761339878E-2</v>
+        <v>-4.5260521755567384E-2</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="12"/>
-        <v>-13.754946515520018</v>
+        <v>-13.489789561301393</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N4" s="6">
         <f t="shared" ref="N4:N23" si="52">N3</f>
@@ -2745,11 +2751,11 @@
       </c>
       <c r="O4" s="6">
         <f t="shared" si="13"/>
-        <v>-6.4286679178137973</v>
+        <v>-6.4286679149623041</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="0"/>
-        <v>-11.134950248965694</v>
+        <v>-11.400107189071008</v>
       </c>
       <c r="Q4" s="6">
         <f t="shared" si="1"/>
@@ -2757,11 +2763,11 @@
       </c>
       <c r="R4" s="6">
         <f t="shared" si="14"/>
-        <v>0.70693598015133385</v>
+        <v>0.70693598015645576</v>
       </c>
       <c r="S4" s="6">
         <f t="shared" si="15"/>
-        <v>0.69848251811933038</v>
+        <v>0.69800624109896003</v>
       </c>
       <c r="T4" s="6">
         <v>400</v>
@@ -3000,159 +3006,162 @@
       </c>
       <c r="CO4" s="9"/>
       <c r="CP4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CQ4" s="10">
+        <v>111</v>
+      </c>
+      <c r="CQ4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="CR4" s="10">
         <v>3</v>
       </c>
-      <c r="CR4" s="10">
+      <c r="CS4" s="10">
         <v>6952.7928000000002</v>
       </c>
-      <c r="CS4" s="10">
-        <v>637455</v>
-      </c>
       <c r="CT4" s="10">
+        <v>638439</v>
+      </c>
+      <c r="CU4" s="10">
         <v>92</v>
       </c>
-      <c r="CU4" s="9"/>
-      <c r="CV4" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="CV4" s="9"/>
       <c r="CW4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="CX4" s="10">
+        <v>111</v>
+      </c>
+      <c r="CX4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="CY4" s="10">
         <v>3</v>
       </c>
-      <c r="CY4" s="10">
-        <v>672378.74350680003</v>
-      </c>
       <c r="CZ4" s="10">
-        <v>96.706282331151897</v>
+        <v>674222.32479065994</v>
       </c>
       <c r="DA4" s="10">
+        <v>96.971439274108704</v>
+      </c>
+      <c r="DB4" s="10">
         <v>6952.7928000000002</v>
       </c>
-      <c r="DB4" s="9"/>
-      <c r="DC4" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="DC4" s="9"/>
       <c r="DD4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="DE4" s="11">
-        <v>594959.72254872206</v>
-      </c>
-      <c r="DF4" s="10">
+        <v>111</v>
+      </c>
+      <c r="DE4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="DF4" s="11">
+        <v>594959.72256854805</v>
+      </c>
+      <c r="DG4" s="10">
         <v>3</v>
       </c>
-      <c r="DG4" s="11">
-        <v>85.571332082186203</v>
-      </c>
       <c r="DH4" s="11">
+        <v>85.571332085037696</v>
+      </c>
+      <c r="DI4" s="11">
         <v>6952.7925775106296</v>
       </c>
-      <c r="DI4" s="9"/>
-      <c r="DL4" s="8"/>
-      <c r="DU4" s="6">
+      <c r="DJ4" s="9"/>
+      <c r="DM4" s="8"/>
+      <c r="DV4" s="6">
         <v>700000</v>
       </c>
-      <c r="EE4" s="6">
+      <c r="EF4" s="6">
         <v>3500000</v>
       </c>
-      <c r="EH4" s="6">
+      <c r="EI4" s="6">
         <f t="shared" si="3"/>
         <v>1665066.8807824969</v>
       </c>
-      <c r="EI4" s="6">
+      <c r="EJ4" s="6">
         <f>1400000*(79/(84+79))</f>
         <v>678527.60736196314</v>
       </c>
-      <c r="EN4" s="6">
+      <c r="EO4" s="6">
         <f t="shared" si="4"/>
         <v>582773.40827387385</v>
       </c>
-      <c r="ER4" s="6">
+      <c r="ES4" s="6">
         <f t="shared" si="5"/>
         <v>7126367.896418334</v>
       </c>
-      <c r="ES4" s="6">
+      <c r="ET4" s="6">
         <f t="shared" si="40"/>
         <v>5448500.2070461195</v>
       </c>
-      <c r="ET4" s="6">
+      <c r="EU4" s="6">
         <f t="shared" si="6"/>
         <v>0.13649617610971224</v>
       </c>
-      <c r="EU4" s="6">
+      <c r="EV4" s="6">
         <f t="shared" si="7"/>
         <v>783.64198935974798</v>
       </c>
-      <c r="EV4" s="18"/>
-      <c r="FH4" s="6">
+      <c r="EW4" s="18"/>
+      <c r="FI4" s="6">
         <v>18539000</v>
       </c>
-      <c r="FS4" s="6">
+      <c r="FT4" s="6">
         <v>32307692</v>
       </c>
-      <c r="FW4" s="6">
+      <c r="FX4" s="6">
         <v>38200000</v>
       </c>
-      <c r="GB4" s="6">
+      <c r="GC4" s="6">
         <f t="shared" si="8"/>
         <v>11468148.141389446</v>
       </c>
-      <c r="GF4" s="18"/>
-      <c r="GG4" s="6">
+      <c r="GG4" s="18"/>
+      <c r="GH4" s="6">
         <f t="shared" si="41"/>
         <v>32307692</v>
       </c>
-      <c r="GH4" s="6">
+      <c r="GI4" s="6">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI4" s="6">
+      <c r="GJ4" s="6">
         <f t="shared" si="43"/>
         <v>38200000</v>
       </c>
-      <c r="GJ4" s="6">
+      <c r="GK4" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK4" s="6">
+      <c r="GL4" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL4" s="6">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM4" s="6">
         <f t="shared" si="46"/>
-        <v>11468148.141389446</v>
+        <v>0</v>
       </c>
       <c r="GN4" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>11468148.141389446</v>
       </c>
       <c r="GO4" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP4" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="6">
         <f t="shared" si="47"/>
         <v>100514840.14138944</v>
       </c>
     </row>
-    <row r="5" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" si="48"/>
@@ -3168,26 +3177,26 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" si="10"/>
-        <v>4.2450978642277022</v>
+        <v>4.5920731290346026</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="11"/>
-        <v>-58.100478662716</v>
+        <v>-58.365635605683202</v>
       </c>
       <c r="I5" s="10">
         <f t="shared" si="50"/>
-        <v>0.21838211313054889</v>
+        <v>0.21956344746188772</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="51"/>
-        <v>0.2111596503807478</v>
+        <v>0.21186470768657339</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="12"/>
-        <v>62.345576526943702</v>
+        <v>62.957708734717805</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="52"/>
@@ -3195,11 +3204,11 @@
       </c>
       <c r="O5" s="10">
         <f t="shared" si="13"/>
-        <v>51.816429946413905</v>
+        <v>52.163405214072299</v>
       </c>
       <c r="P5" s="10">
         <f t="shared" si="0"/>
-        <v>51.210626277978008</v>
+        <v>51.557601545646797</v>
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="1"/>
@@ -3207,11 +3216,11 @@
       </c>
       <c r="R5" s="10">
         <f t="shared" si="14"/>
-        <v>0.91809563053208165</v>
+        <v>0.91880068784302915</v>
       </c>
       <c r="S5" s="6">
         <f t="shared" si="15"/>
-        <v>0.91686463124987927</v>
+        <v>0.91756968856084775</v>
       </c>
       <c r="T5" s="6">
         <v>400</v>
@@ -3446,150 +3455,153 @@
         <v>1963579.0023240601</v>
       </c>
       <c r="CP5" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="CQ5" s="10">
+        <v>113</v>
+      </c>
+      <c r="CQ5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="CR5" s="10">
         <v>4</v>
       </c>
-      <c r="CR5" s="10">
+      <c r="CS5" s="10">
         <v>2584.3991999999998</v>
       </c>
-      <c r="CS5" s="10">
+      <c r="CT5" s="10">
         <v>97480</v>
       </c>
-      <c r="CT5" s="10">
+      <c r="CU5" s="10">
         <v>38</v>
       </c>
-      <c r="CV5" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="CW5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="CX5" s="10">
+        <v>113</v>
+      </c>
+      <c r="CX5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="CY5" s="10">
         <v>4</v>
       </c>
-      <c r="CY5" s="10">
-        <v>99772.808116062995</v>
-      </c>
       <c r="CZ5" s="10">
-        <v>38.605803668435897</v>
+        <v>99772.808116036002</v>
       </c>
       <c r="DA5" s="10">
+        <v>38.605803668425501</v>
+      </c>
+      <c r="DB5" s="10">
         <v>2584.3991999999998</v>
       </c>
-      <c r="DC5" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="DD5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="DE5" s="11">
-        <v>232121.50227247999</v>
-      </c>
-      <c r="DF5" s="10">
+        <v>113</v>
+      </c>
+      <c r="DE5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="DF5" s="11">
+        <v>233018.22484794099</v>
+      </c>
+      <c r="DG5" s="10">
         <v>4</v>
       </c>
-      <c r="DG5" s="11">
-        <v>89.816429946413905</v>
-      </c>
       <c r="DH5" s="11">
+        <v>90.163405214072299</v>
+      </c>
+      <c r="DI5" s="11">
         <v>2584.3991172992201</v>
       </c>
-      <c r="DL5" s="11"/>
-      <c r="EH5" s="10">
+      <c r="DM5" s="11"/>
+      <c r="EI5" s="10">
         <f t="shared" si="3"/>
         <v>618916.40358400601</v>
       </c>
-      <c r="EI5" s="10">
+      <c r="EJ5" s="10">
         <f>1400000*(84/(84+79))</f>
         <v>721472.39263803686</v>
       </c>
-      <c r="EN5" s="10">
+      <c r="EO5" s="10">
         <f t="shared" si="4"/>
         <v>216620.74125440209</v>
       </c>
-      <c r="EP5" s="10">
-        <f>912000*($DH5/(SUM($DH$5:$DH$7)))</f>
+      <c r="EQ5" s="10">
+        <f>912000*($DI5/(SUM($DI$5:$DI$7)))</f>
         <v>690063.18043905019</v>
       </c>
-      <c r="ER5" s="10">
+      <c r="ES5" s="10">
         <f t="shared" si="5"/>
         <v>1557009.5374764448</v>
       </c>
-      <c r="ES5" s="10">
+      <c r="ET5" s="10">
         <f t="shared" si="40"/>
         <v>1190419.4269253032</v>
       </c>
-      <c r="ET5" s="10">
+      <c r="EU5" s="10">
         <f t="shared" si="6"/>
         <v>2.9822463717976241E-2</v>
       </c>
-      <c r="EU5" s="10">
+      <c r="EV5" s="10">
         <f t="shared" si="7"/>
         <v>460.61748704253142</v>
       </c>
-      <c r="FW5" s="10">
+      <c r="FX5" s="10">
         <v>48500000</v>
       </c>
-      <c r="GB5" s="10">
+      <c r="GC5" s="10">
         <f t="shared" si="8"/>
         <v>4262786.7296848418</v>
       </c>
-      <c r="GD5" s="10">
-        <f>24000000*($DH5/(SUM($DH$5:$DH$7)))</f>
+      <c r="GE5" s="10">
+        <f>24000000*($DI5/(SUM($DI$5:$DI$7)))</f>
         <v>18159557.379975002</v>
       </c>
-      <c r="GG5" s="10">
+      <c r="GH5" s="10">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="GH5" s="10">
+      <c r="GI5" s="10">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI5" s="10">
+      <c r="GJ5" s="10">
         <f t="shared" si="43"/>
         <v>48500000</v>
       </c>
-      <c r="GJ5" s="10">
+      <c r="GK5" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK5" s="10">
+      <c r="GL5" s="10">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL5" s="10">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM5" s="10">
         <f t="shared" si="46"/>
-        <v>4262786.7296848418</v>
+        <v>0</v>
       </c>
       <c r="GN5" s="10">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>4262786.7296848418</v>
       </c>
       <c r="GO5" s="10">
         <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GP5" s="10">
+        <f t="shared" si="46"/>
         <v>18159557.379975002</v>
       </c>
-      <c r="GP5" s="10">
+      <c r="GQ5" s="10">
         <f t="shared" si="47"/>
         <v>52762786.729684845</v>
       </c>
     </row>
-    <row r="6" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="48"/>
@@ -3605,26 +3617,26 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" si="10"/>
-        <v>12.683511134424108</v>
+        <v>13.030486435367294</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="11"/>
-        <v>-11.131248364362001</v>
+        <v>-12.262990485044696</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" si="50"/>
-        <v>-3.4095454198696085E-2</v>
+        <v>-3.0872259256815915E-2</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="51"/>
-        <v>-4.562945316611644E-2</v>
+        <v>-4.2699385762611453E-2</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" si="12"/>
-        <v>23.81475949878611</v>
+        <v>25.29347692041199</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="52"/>
@@ -3632,11 +3644,11 @@
       </c>
       <c r="O6" s="6">
         <f t="shared" si="13"/>
-        <v>33.132918811989796</v>
+        <v>32.132918778705005</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>27.395866779191898</v>
+        <v>26.264124625234807</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="1"/>
@@ -3644,11 +3656,11 @@
       </c>
       <c r="R6" s="6">
         <f t="shared" si="14"/>
-        <v>0.96372508369819809</v>
+        <v>0.9615000736056406</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" si="15"/>
-        <v>0.95096008544857535</v>
+        <v>0.94844194781766367</v>
       </c>
       <c r="T6" s="6">
         <v>400</v>
@@ -3855,148 +3867,151 @@
       </c>
       <c r="CO6" s="9"/>
       <c r="CP6" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="CQ6" s="10">
+        <v>115</v>
+      </c>
+      <c r="CQ6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="CR6" s="10">
         <v>5</v>
       </c>
-      <c r="CR6" s="10">
+      <c r="CS6" s="10">
         <v>519.98879999999997</v>
       </c>
-      <c r="CS6" s="10">
-        <v>22633</v>
-      </c>
       <c r="CT6" s="10">
-        <v>44</v>
-      </c>
-      <c r="CU6" s="9"/>
-      <c r="CV6" s="10" t="s">
-        <v>121</v>
-      </c>
+        <v>23221</v>
+      </c>
+      <c r="CU6" s="10">
+        <v>45</v>
+      </c>
+      <c r="CV6" s="9"/>
       <c r="CW6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="CX6" s="10">
+        <v>115</v>
+      </c>
+      <c r="CX6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="CY6" s="10">
         <v>5</v>
       </c>
-      <c r="CY6" s="10">
-        <v>25862.710002072101</v>
-      </c>
       <c r="CZ6" s="10">
-        <v>49.737052032797898</v>
+        <v>26451.2032293099</v>
       </c>
       <c r="DA6" s="10">
+        <v>50.868794153470198</v>
+      </c>
+      <c r="DB6" s="10">
         <v>519.98879999999997</v>
       </c>
-      <c r="DB6" s="9"/>
-      <c r="DC6" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="DC6" s="9"/>
       <c r="DD6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="DE6" s="11">
-        <v>40108.2526100799</v>
-      </c>
-      <c r="DF6" s="10">
+        <v>115</v>
+      </c>
+      <c r="DE6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="DF6" s="11">
+        <v>40108.252592772202</v>
+      </c>
+      <c r="DG6" s="10">
         <v>5</v>
       </c>
-      <c r="DG6" s="11">
-        <v>77.132918811989796</v>
-      </c>
       <c r="DH6" s="11">
+        <v>77.132918778705005</v>
+      </c>
+      <c r="DI6" s="11">
         <v>519.98878336035898</v>
       </c>
-      <c r="DI6" s="9"/>
-      <c r="DL6" s="8"/>
-      <c r="EH6" s="6">
+      <c r="DJ6" s="9"/>
+      <c r="DM6" s="8"/>
+      <c r="EI6" s="6">
         <f t="shared" si="3"/>
         <v>124527.81985072742</v>
       </c>
-      <c r="EN6" s="6">
+      <c r="EO6" s="6">
         <f t="shared" si="4"/>
         <v>43584.736947754594</v>
       </c>
-      <c r="EP6" s="6">
-        <f>912000*($DH6/(SUM($DH$5:$DH$7)))</f>
+      <c r="EQ6" s="6">
+        <f>912000*($DI6/(SUM($DI$5:$DI$7)))</f>
         <v>138842.76280564023</v>
       </c>
-      <c r="ER6" s="6">
+      <c r="ES6" s="6">
         <f t="shared" si="5"/>
         <v>168112.55679848202</v>
       </c>
-      <c r="ES6" s="6">
+      <c r="ET6" s="6">
         <f t="shared" si="40"/>
         <v>128531.29586306342</v>
       </c>
-      <c r="ET6" s="6">
+      <c r="EU6" s="6">
         <f t="shared" si="6"/>
         <v>3.2199742551254585E-3</v>
       </c>
-      <c r="EU6" s="6">
+      <c r="EV6" s="6">
         <f t="shared" si="7"/>
         <v>247.1809007733722</v>
       </c>
-      <c r="EV6" s="18"/>
-      <c r="GB6" s="6">
+      <c r="EW6" s="18"/>
+      <c r="GC6" s="6">
         <f t="shared" si="8"/>
         <v>857685.3592218851</v>
       </c>
-      <c r="GD6" s="6">
-        <f>24000000*($DH6/(SUM($DH$5:$DH$7)))</f>
+      <c r="GE6" s="6">
+        <f>24000000*($DI6/(SUM($DI$5:$DI$7)))</f>
         <v>3653756.9159379005</v>
       </c>
-      <c r="GF6" s="18"/>
-      <c r="GG6" s="6">
+      <c r="GG6" s="18"/>
+      <c r="GH6" s="6">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="GH6" s="6">
+      <c r="GI6" s="6">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI6" s="6">
+      <c r="GJ6" s="6">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ6" s="6">
+      <c r="GK6" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK6" s="6">
+      <c r="GL6" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL6" s="6">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM6" s="6">
         <f t="shared" si="46"/>
-        <v>857685.3592218851</v>
+        <v>0</v>
       </c>
       <c r="GN6" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>857685.3592218851</v>
       </c>
       <c r="GO6" s="6">
         <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GP6" s="6">
+        <f t="shared" si="46"/>
         <v>3653756.9159379005</v>
       </c>
-      <c r="GP6" s="6">
+      <c r="GQ6" s="6">
         <f t="shared" si="47"/>
         <v>857685.3592218851</v>
       </c>
     </row>
-    <row r="7" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="48"/>
@@ -4012,26 +4027,26 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="10"/>
-        <v>32.404026766617207</v>
+        <v>32.404026824824001</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="11"/>
-        <v>22.794321635545707</v>
+        <v>21.662579449441601</v>
       </c>
       <c r="I7" s="10">
         <f t="shared" si="50"/>
-        <v>2.1381690191451308E-2</v>
+        <v>2.3899828023401293E-2</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="51"/>
-        <v>2.5374073806949449E-2</v>
+        <v>2.7599083954958692E-2</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="12"/>
-        <v>9.6097051310715003</v>
+        <v>10.7414473753824</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" si="52"/>
@@ -4039,11 +4054,11 @@
       </c>
       <c r="O7" s="10">
         <f t="shared" si="13"/>
-        <v>44.536945578607003</v>
+        <v>44.536945603529006</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" si="0"/>
-        <v>37.005571910263399</v>
+        <v>37.005572000617207</v>
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="1"/>
@@ -4051,11 +4066,11 @@
       </c>
       <c r="R7" s="10">
         <f t="shared" si="14"/>
-        <v>0.98909915750514754</v>
+        <v>0.9890991575605993</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="15"/>
-        <v>0.97234177564002666</v>
+        <v>0.97234177584106496</v>
       </c>
       <c r="T7" s="6">
         <v>400</v>
@@ -4250,143 +4265,146 @@
         <v>1278925.6786006801</v>
       </c>
       <c r="CP7" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="CQ7" s="10">
+        <v>119</v>
+      </c>
+      <c r="CQ7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR7" s="10">
         <v>6</v>
       </c>
-      <c r="CR7" s="10">
+      <c r="CS7" s="10">
         <v>311.20080000000002</v>
       </c>
-      <c r="CS7" s="10">
+      <c r="CT7" s="10">
         <v>20314</v>
       </c>
-      <c r="CT7" s="10">
+      <c r="CU7" s="10">
         <v>65</v>
       </c>
-      <c r="CV7" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="CW7" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="CX7" s="10">
+        <v>119</v>
+      </c>
+      <c r="CX7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="CY7" s="10">
         <v>6</v>
       </c>
-      <c r="CY7" s="10">
-        <v>22571.821510687401</v>
-      </c>
       <c r="CZ7" s="10">
-        <v>72.531373668343605</v>
+        <v>22571.821490325001</v>
       </c>
       <c r="DA7" s="10">
+        <v>72.531373602911799</v>
+      </c>
+      <c r="DB7" s="10">
         <v>311.20080000000002</v>
       </c>
-      <c r="DC7" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="DD7" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="DE7" s="11">
-        <v>34087.984002803598</v>
-      </c>
-      <c r="DF7" s="10">
+        <v>119</v>
+      </c>
+      <c r="DE7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DF7" s="11">
+        <v>34087.984010559499</v>
+      </c>
+      <c r="DG7" s="10">
         <v>6</v>
       </c>
-      <c r="DG7" s="11">
-        <v>109.536945578607</v>
-      </c>
       <c r="DH7" s="11">
+        <v>109.53694560352901</v>
+      </c>
+      <c r="DI7" s="11">
         <v>311.20079004157401</v>
       </c>
-      <c r="DL7" s="11"/>
-      <c r="EH7" s="10">
+      <c r="DM7" s="11"/>
+      <c r="EI7" s="10">
         <f t="shared" si="3"/>
         <v>74526.907425317942</v>
       </c>
-      <c r="EN7" s="10">
+      <c r="EO7" s="10">
         <f t="shared" si="4"/>
         <v>26084.417598861277</v>
       </c>
-      <c r="EP7" s="10">
-        <f>912000*($DH7/(SUM($DH$5:$DH$7)))</f>
+      <c r="EQ7" s="10">
+        <f>912000*($DI7/(SUM($DI$5:$DI$7)))</f>
         <v>83094.056755309692</v>
       </c>
-      <c r="ER7" s="10">
+      <c r="ES7" s="10">
         <f t="shared" si="5"/>
         <v>100611.32502417921</v>
       </c>
-      <c r="ES7" s="10">
+      <c r="ET7" s="10">
         <f t="shared" si="40"/>
         <v>76922.891603861339</v>
       </c>
-      <c r="ET7" s="10">
+      <c r="EU7" s="10">
         <f t="shared" si="6"/>
         <v>1.9270772066137662E-3</v>
       </c>
-      <c r="EU7" s="10">
+      <c r="EV7" s="10">
         <f t="shared" si="7"/>
         <v>247.1809007733722</v>
       </c>
-      <c r="GB7" s="10">
+      <c r="GC7" s="10">
         <f t="shared" si="8"/>
         <v>513304.0748918773</v>
       </c>
-      <c r="GD7" s="10">
-        <f>24000000*($DH7/(SUM($DH$5:$DH$7)))</f>
+      <c r="GE7" s="10">
+        <f>24000000*($DI7/(SUM($DI$5:$DI$7)))</f>
         <v>2186685.7040870972</v>
       </c>
-      <c r="GG7" s="10">
+      <c r="GH7" s="10">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="GH7" s="10">
+      <c r="GI7" s="10">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI7" s="10">
+      <c r="GJ7" s="10">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ7" s="10">
+      <c r="GK7" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK7" s="10">
+      <c r="GL7" s="10">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL7" s="10">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM7" s="10">
         <f t="shared" si="46"/>
-        <v>513304.0748918773</v>
+        <v>0</v>
       </c>
       <c r="GN7" s="10">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>513304.0748918773</v>
       </c>
       <c r="GO7" s="10">
         <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GP7" s="10">
+        <f t="shared" si="46"/>
         <v>2186685.7040870972</v>
       </c>
-      <c r="GP7" s="10">
+      <c r="GQ7" s="10">
         <f t="shared" si="47"/>
         <v>513304.0748918773</v>
       </c>
     </row>
-    <row r="8" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="48"/>
@@ -4402,26 +4420,26 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="10"/>
-        <v>25.419953021843398</v>
+        <v>25.293294960359304</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="11"/>
-        <v>-15.291743517551694</v>
+        <v>-15.2917435866826</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="50"/>
-        <v>0.15855505662541802</v>
+        <v>0.15829496533383258</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="51"/>
-        <v>0.17156868001912562</v>
+        <v>0.17130858857435771</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="12"/>
-        <v>40.711696539395092</v>
+        <v>40.585038547041904</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="52"/>
@@ -4429,11 +4447,11 @@
       </c>
       <c r="O8" s="6">
         <f t="shared" si="13"/>
-        <v>-1.8830074432363944</v>
+        <v>-1.7563493568302988</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>-3.7061246291316934</v>
+        <v>-3.5794665464246975</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
@@ -4441,11 +4459,11 @@
       </c>
       <c r="R8" s="6">
         <f t="shared" si="14"/>
-        <v>0.81753047748602192</v>
+        <v>0.81779056898624158</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="15"/>
-        <v>0.81378671901460864</v>
+        <v>0.81404681050723238</v>
       </c>
       <c r="T8" s="6">
         <v>400</v>
@@ -4684,148 +4702,151 @@
       </c>
       <c r="CO8" s="9"/>
       <c r="CP8" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="CQ8" s="10">
+        <v>120</v>
+      </c>
+      <c r="CQ8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CR8" s="10">
         <v>7</v>
       </c>
-      <c r="CR8" s="10">
+      <c r="CS8" s="10">
         <v>1574.2919999999999</v>
       </c>
-      <c r="CS8" s="10">
+      <c r="CT8" s="10">
         <v>135899</v>
       </c>
-      <c r="CT8" s="10">
+      <c r="CU8" s="10">
         <v>86</v>
       </c>
-      <c r="CU8" s="9"/>
-      <c r="CV8" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="CV8" s="9"/>
       <c r="CW8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="CX8" s="10">
+        <v>120</v>
+      </c>
+      <c r="CX8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CY8" s="10">
         <v>7</v>
       </c>
-      <c r="CY8" s="10">
-        <v>138259.23080081699</v>
-      </c>
       <c r="CZ8" s="10">
-        <v>87.823117185895299</v>
+        <v>138259.23080664099</v>
       </c>
       <c r="DA8" s="10">
+        <v>87.823117189594399</v>
+      </c>
+      <c r="DB8" s="10">
         <v>1574.2919999999999</v>
       </c>
-      <c r="DB8" s="9"/>
-      <c r="DC8" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="DC8" s="9"/>
       <c r="DD8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="DE8" s="11">
-        <v>132424.704208582</v>
-      </c>
-      <c r="DF8" s="10">
+        <v>120</v>
+      </c>
+      <c r="DE8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="DF8" s="11">
+        <v>132624.10101436501</v>
+      </c>
+      <c r="DG8" s="10">
         <v>7</v>
       </c>
-      <c r="DG8" s="11">
-        <v>84.116992556763606</v>
-      </c>
       <c r="DH8" s="11">
+        <v>84.243650643169701</v>
+      </c>
+      <c r="DI8" s="11">
         <v>1574.29194962265</v>
       </c>
-      <c r="DI8" s="9"/>
-      <c r="DL8" s="8"/>
-      <c r="EE8" s="6">
-        <f>1200000*($DH8/(SUM($DH$8:$DH$11)))</f>
+      <c r="DJ8" s="9"/>
+      <c r="DM8" s="8"/>
+      <c r="EF8" s="6">
+        <f>1200000*($DI8/(SUM($DI$8:$DI$11)))</f>
         <v>386481.26208143582</v>
       </c>
-      <c r="EH8" s="6">
+      <c r="EI8" s="6">
         <f t="shared" si="3"/>
         <v>377014.17909085809</v>
       </c>
-      <c r="EN8" s="6">
+      <c r="EO8" s="6">
         <f t="shared" si="4"/>
         <v>131954.96268180033</v>
       </c>
-      <c r="ER8" s="6">
+      <c r="ES8" s="6">
         <f t="shared" si="5"/>
         <v>895450.40385409421</v>
       </c>
-      <c r="ES8" s="6">
+      <c r="ET8" s="6">
         <f t="shared" si="40"/>
         <v>684621.08351866703</v>
       </c>
-      <c r="ET8" s="6">
+      <c r="EU8" s="6">
         <f t="shared" si="6"/>
         <v>1.7151171227549333E-2</v>
       </c>
-      <c r="EU8" s="6">
+      <c r="EV8" s="6">
         <f t="shared" si="7"/>
         <v>434.87555385312572</v>
       </c>
-      <c r="EV8" s="18"/>
-      <c r="FS8" s="6">
-        <f>18300000*($DH8/(SUM($DH$8:$DH$11)))</f>
+      <c r="EW8" s="18"/>
+      <c r="FT8" s="6">
+        <f>18300000*($DI8/(SUM($DI$8:$DI$11)))</f>
         <v>5893839.2467418965</v>
       </c>
-      <c r="GB8" s="6">
+      <c r="GC8" s="6">
         <f t="shared" si="8"/>
         <v>2596685.1584882853</v>
       </c>
-      <c r="GF8" s="18"/>
-      <c r="GG8" s="6">
+      <c r="GG8" s="18"/>
+      <c r="GH8" s="6">
         <f t="shared" si="41"/>
         <v>5893839.2467418965</v>
       </c>
-      <c r="GH8" s="6">
+      <c r="GI8" s="6">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI8" s="6">
+      <c r="GJ8" s="6">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ8" s="6">
+      <c r="GK8" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK8" s="6">
+      <c r="GL8" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL8" s="6">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM8" s="6">
         <f t="shared" si="46"/>
-        <v>2596685.1584882853</v>
+        <v>0</v>
       </c>
       <c r="GN8" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2596685.1584882853</v>
       </c>
       <c r="GO8" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP8" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="6">
         <f t="shared" si="47"/>
         <v>8490524.4052301813</v>
       </c>
     </row>
-    <row r="9" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10" t="str">
         <f t="shared" si="48"/>
@@ -4841,26 +4862,26 @@
       </c>
       <c r="G9" s="10">
         <f t="shared" si="10"/>
-        <v>7.0558944608770986</v>
+        <v>6.9292363851303946</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="11"/>
-        <v>21.479488520194707</v>
+        <v>21.4794884673436</v>
       </c>
       <c r="I9" s="10">
         <f t="shared" si="50"/>
-        <v>-2.9618750163489804E-2</v>
+        <v>-2.9878841533291234E-2</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="51"/>
-        <v>8.2254500905437289E-2</v>
+        <v>8.1994409427106674E-2</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="12"/>
-        <v>-14.423594059317608</v>
+        <v>-14.550252082213206</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" si="52"/>
@@ -4868,11 +4889,11 @@
       </c>
       <c r="O9" s="10">
         <f t="shared" si="13"/>
-        <v>38.172887017640704</v>
+        <v>38.172887028300096</v>
       </c>
       <c r="P9" s="10">
         <f t="shared" si="0"/>
-        <v>-18.129718688449302</v>
+        <v>-18.129718628637903</v>
       </c>
       <c r="Q9" s="10">
         <f t="shared" si="1"/>
@@ -4880,11 +4901,11 @@
       </c>
       <c r="R9" s="10">
         <f t="shared" si="14"/>
-        <v>0.89978497839145921</v>
+        <v>0.89978497841334826</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="15"/>
-        <v>0.78416796885111884</v>
+        <v>0.78416796897394114</v>
       </c>
       <c r="T9" s="6">
         <v>400</v>
@@ -5119,143 +5140,146 @@
         <v>339617.64186450199</v>
       </c>
       <c r="CP9" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="CQ9" s="10">
+        <v>124</v>
+      </c>
+      <c r="CQ9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="CR9" s="10">
         <v>8</v>
       </c>
-      <c r="CR9" s="10">
+      <c r="CS9" s="10">
         <v>988.46640000000002</v>
       </c>
-      <c r="CS9" s="10">
+      <c r="CT9" s="10">
         <v>52114</v>
       </c>
-      <c r="CT9" s="10">
+      <c r="CU9" s="10">
         <v>53</v>
       </c>
-      <c r="CV9" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="CW9" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="CX9" s="10">
+        <v>124</v>
+      </c>
+      <c r="CX9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="CY9" s="10">
         <v>8</v>
       </c>
-      <c r="CY9" s="10">
-        <v>108041.953172918</v>
-      </c>
       <c r="CZ9" s="10">
-        <v>109.30260570609001</v>
+        <v>108041.953124333</v>
       </c>
       <c r="DA9" s="10">
+        <v>109.302605656938</v>
+      </c>
+      <c r="DB9" s="10">
         <v>988.46640000000002</v>
       </c>
-      <c r="DC9" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="DD9" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="DE9" s="11">
-        <v>90121.332524051395</v>
-      </c>
-      <c r="DF9" s="10">
+        <v>124</v>
+      </c>
+      <c r="DE9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="DF9" s="11">
+        <v>90121.332534587898</v>
+      </c>
+      <c r="DG9" s="10">
         <v>8</v>
       </c>
-      <c r="DG9" s="11">
-        <v>91.172887017640704</v>
-      </c>
       <c r="DH9" s="11">
+        <v>91.172887028300096</v>
+      </c>
+      <c r="DI9" s="11">
         <v>988.46636836907601</v>
       </c>
-      <c r="DL9" s="11"/>
-      <c r="EE9" s="10">
-        <f>1200000*($DH9/(SUM($DH$8:$DH$11)))</f>
+      <c r="DM9" s="11"/>
+      <c r="EF9" s="10">
+        <f>1200000*($DI9/(SUM($DI$8:$DI$11)))</f>
         <v>242663.83987030052</v>
       </c>
-      <c r="EH9" s="10">
+      <c r="EI9" s="10">
         <f t="shared" si="3"/>
         <v>236719.64816876253</v>
       </c>
-      <c r="EN9" s="10">
+      <c r="EO9" s="10">
         <f t="shared" si="4"/>
         <v>82851.876859066891</v>
       </c>
-      <c r="ER9" s="10">
+      <c r="ES9" s="10">
         <f t="shared" si="5"/>
         <v>562235.36489812995</v>
       </c>
-      <c r="ES9" s="10">
+      <c r="ET9" s="10">
         <f t="shared" si="40"/>
         <v>429859.85940968973</v>
       </c>
-      <c r="ET9" s="10">
+      <c r="EU9" s="10">
         <f t="shared" si="6"/>
         <v>1.0768876726223184E-2</v>
       </c>
-      <c r="EU9" s="10">
+      <c r="EV9" s="10">
         <f t="shared" si="7"/>
         <v>434.87555385312572</v>
       </c>
-      <c r="FS9" s="10">
-        <f>18300000*($DH9/(SUM($DH$8:$DH$11)))</f>
+      <c r="FT9" s="10">
+        <f>18300000*($DI9/(SUM($DI$8:$DI$11)))</f>
         <v>3700623.5580220828</v>
       </c>
-      <c r="GB9" s="10">
+      <c r="GC9" s="10">
         <f t="shared" si="8"/>
         <v>1630406.5767623519</v>
       </c>
-      <c r="GG9" s="10">
+      <c r="GH9" s="10">
         <f t="shared" si="41"/>
         <v>3700623.5580220828</v>
       </c>
-      <c r="GH9" s="10">
+      <c r="GI9" s="10">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI9" s="10">
+      <c r="GJ9" s="10">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ9" s="10">
+      <c r="GK9" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK9" s="10">
+      <c r="GL9" s="10">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL9" s="10">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM9" s="10">
         <f t="shared" si="46"/>
-        <v>1630406.5767623519</v>
+        <v>0</v>
       </c>
       <c r="GN9" s="10">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1630406.5767623519</v>
       </c>
       <c r="GO9" s="10">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP9" s="10">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ9" s="10">
         <f t="shared" si="47"/>
         <v>5331030.1347844349</v>
       </c>
     </row>
-    <row r="10" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="10" t="str">
         <f t="shared" si="48"/>
@@ -5271,26 +5295,26 @@
       </c>
       <c r="G10" s="10">
         <f t="shared" si="10"/>
-        <v>13.910904816929289</v>
+        <v>13.910904785031903</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="11"/>
-        <v>22.260036751068995</v>
+        <v>22.260036812827991</v>
       </c>
       <c r="I10" s="10">
         <f t="shared" si="50"/>
-        <v>-1.7144884404143301E-2</v>
+        <v>-1.7144884596466126E-2</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="51"/>
-        <v>3.2672932468122085E-2</v>
+        <v>3.2672932402621035E-2</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="12"/>
-        <v>-8.3491319341397059</v>
+        <v>-8.3491320277960881</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="52"/>
@@ -5298,11 +5322,11 @@
       </c>
       <c r="O10" s="6">
         <f t="shared" si="13"/>
-        <v>54.083791834569993</v>
+        <v>54.083791813331999</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="0"/>
-        <v>-26.478850622589007</v>
+        <v>-26.478850656433991</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="1"/>
@@ -5310,11 +5334,11 @@
       </c>
       <c r="R10" s="6">
         <f t="shared" si="14"/>
-        <v>0.9324579108595813</v>
+        <v>0.93245791081596929</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="15"/>
-        <v>0.76702308444697553</v>
+        <v>0.76702308437747502</v>
       </c>
       <c r="T10" s="6">
         <v>400</v>
@@ -5553,148 +5577,151 @@
       </c>
       <c r="CO10" s="9"/>
       <c r="CP10" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="CQ10" s="10">
+        <v>125</v>
+      </c>
+      <c r="CQ10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR10" s="10">
         <v>9</v>
       </c>
-      <c r="CR10" s="10">
+      <c r="CS10" s="10">
         <v>1451.7624000000001</v>
       </c>
-      <c r="CS10" s="10">
+      <c r="CT10" s="10">
         <v>73368</v>
       </c>
-      <c r="CT10" s="10">
+      <c r="CU10" s="10">
         <v>51</v>
       </c>
-      <c r="CU10" s="9"/>
-      <c r="CV10" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="CV10" s="9"/>
       <c r="CW10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="CX10" s="10">
+        <v>125</v>
+      </c>
+      <c r="CX10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="CY10" s="10">
         <v>9</v>
       </c>
-      <c r="CY10" s="10">
-        <v>190997.69756394799</v>
-      </c>
       <c r="CZ10" s="10">
-        <v>131.562642457159</v>
+        <v>190997.69758225</v>
       </c>
       <c r="DA10" s="10">
+        <v>131.56264246976599</v>
+      </c>
+      <c r="DB10" s="10">
         <v>1451.7624000000001</v>
       </c>
-      <c r="DB10" s="9"/>
-      <c r="DC10" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="DC10" s="9"/>
       <c r="DD10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="DE10" s="11">
-        <v>152556.69295304199</v>
-      </c>
-      <c r="DF10" s="10">
+        <v>125</v>
+      </c>
+      <c r="DE10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="DF10" s="11">
+        <v>152556.69292220901</v>
+      </c>
+      <c r="DG10" s="10">
         <v>9</v>
       </c>
-      <c r="DG10" s="11">
-        <v>105.08379183456999</v>
-      </c>
       <c r="DH10" s="11">
+        <v>105.083791813332</v>
+      </c>
+      <c r="DI10" s="11">
         <v>1451.7623535436001</v>
       </c>
-      <c r="DI10" s="9"/>
-      <c r="DL10" s="8"/>
-      <c r="EE10" s="6">
-        <f>1200000*($DH10/(SUM($DH$8:$DH$11)))</f>
+      <c r="DJ10" s="9"/>
+      <c r="DM10" s="8"/>
+      <c r="EF10" s="6">
+        <f>1200000*($DI10/(SUM($DI$8:$DI$11)))</f>
         <v>356400.82309658895</v>
       </c>
-      <c r="EH10" s="6">
+      <c r="EI10" s="6">
         <f t="shared" si="3"/>
         <v>347670.57793025364</v>
       </c>
-      <c r="EN10" s="6">
+      <c r="EO10" s="6">
         <f t="shared" si="4"/>
         <v>121684.70227558877</v>
       </c>
-      <c r="ER10" s="6">
+      <c r="ES10" s="6">
         <f t="shared" si="5"/>
         <v>825756.10330243141</v>
       </c>
-      <c r="ES10" s="6">
+      <c r="ET10" s="6">
         <f t="shared" si="40"/>
         <v>631335.95756039047</v>
       </c>
-      <c r="ET10" s="6">
+      <c r="EU10" s="6">
         <f t="shared" si="6"/>
         <v>1.5816268839654913E-2</v>
       </c>
-      <c r="EU10" s="6">
+      <c r="EV10" s="6">
         <f t="shared" si="7"/>
         <v>434.87555385312578</v>
       </c>
-      <c r="EV10" s="18"/>
-      <c r="FS10" s="6">
-        <f>18300000*($DH10/(SUM($DH$8:$DH$11)))</f>
+      <c r="EW10" s="18"/>
+      <c r="FT10" s="6">
+        <f>18300000*($DI10/(SUM($DI$8:$DI$11)))</f>
         <v>5435112.5522229811</v>
       </c>
-      <c r="GB10" s="6">
+      <c r="GC10" s="6">
         <f t="shared" si="8"/>
         <v>2394581.1054946217</v>
       </c>
-      <c r="GF10" s="18"/>
-      <c r="GG10" s="6">
+      <c r="GG10" s="18"/>
+      <c r="GH10" s="6">
         <f t="shared" si="41"/>
         <v>5435112.5522229811</v>
       </c>
-      <c r="GH10" s="6">
+      <c r="GI10" s="6">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI10" s="6">
+      <c r="GJ10" s="6">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ10" s="6">
+      <c r="GK10" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK10" s="6">
+      <c r="GL10" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL10" s="6">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM10" s="6">
         <f t="shared" si="46"/>
-        <v>2394581.1054946217</v>
+        <v>0</v>
       </c>
       <c r="GN10" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2394581.1054946217</v>
       </c>
       <c r="GO10" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP10" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ10" s="6">
         <f t="shared" si="47"/>
         <v>7829693.6577176023</v>
       </c>
     </row>
-    <row r="11" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D11" s="10" t="str">
         <f t="shared" si="48"/>
@@ -5710,26 +5737,26 @@
       </c>
       <c r="G11" s="10">
         <f t="shared" si="10"/>
-        <v>-17.701971000458286</v>
+        <v>-17.701971008709293</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="11"/>
-        <v>-24.326534678602002</v>
+        <v>-24.326534725217996</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="50"/>
-        <v>1.3603495475408733E-2</v>
+        <v>1.3603495554191047E-2</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="51"/>
-        <v>-5.0725325782147723E-2</v>
+        <v>-5.072532579909117E-2</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="12"/>
-        <v>6.6245636781437156</v>
+        <v>6.6245637165087032</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="52"/>
@@ -5737,11 +5764,11 @@
       </c>
       <c r="O11" s="10">
         <f t="shared" si="13"/>
-        <v>29.381820834111707</v>
+        <v>29.381820804622706</v>
       </c>
       <c r="P11" s="10">
         <f t="shared" si="0"/>
-        <v>-19.854286944445292</v>
+        <v>-19.854286939925288</v>
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="1"/>
@@ -5749,11 +5776,11 @@
       </c>
       <c r="R11" s="10">
         <f t="shared" si="14"/>
-        <v>0.88173258507743357</v>
+        <v>0.88173258501687812</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="15"/>
-        <v>0.78062657992238427</v>
+        <v>0.78062657993166606</v>
       </c>
       <c r="T11" s="6">
         <v>400</v>
@@ -5988,143 +6015,146 @@
         <v>1068393.3918636199</v>
       </c>
       <c r="CP11" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="CQ11" s="10">
+        <v>129</v>
+      </c>
+      <c r="CQ11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR11" s="10">
         <v>10</v>
       </c>
-      <c r="CR11" s="10">
+      <c r="CS11" s="10">
         <v>873.55679999999995</v>
       </c>
-      <c r="CS11" s="10">
+      <c r="CT11" s="10">
         <v>50523</v>
       </c>
-      <c r="CT11" s="10">
+      <c r="CU11" s="10">
         <v>58</v>
       </c>
-      <c r="CV11" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="CW11" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="CX11" s="10">
+        <v>129</v>
+      </c>
+      <c r="CX11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CY11" s="10">
         <v>10</v>
       </c>
-      <c r="CY11" s="10">
-        <v>93676.831155491498</v>
-      </c>
       <c r="CZ11" s="10">
-        <v>107.236107778557</v>
+        <v>93676.831125783297</v>
       </c>
       <c r="DA11" s="10">
+        <v>107.23610774454799</v>
+      </c>
+      <c r="DB11" s="10">
         <v>873.55679999999995</v>
       </c>
-      <c r="DC11" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="DD11" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="DE11" s="11">
-        <v>76332.981343364503</v>
-      </c>
-      <c r="DF11" s="10">
+        <v>129</v>
+      </c>
+      <c r="DE11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF11" s="11">
+        <v>76332.981317604295</v>
+      </c>
+      <c r="DG11" s="10">
         <v>10</v>
       </c>
-      <c r="DG11" s="11">
-        <v>87.381820834111707</v>
-      </c>
       <c r="DH11" s="11">
+        <v>87.381820804622706</v>
+      </c>
+      <c r="DI11" s="11">
         <v>873.55677204618303</v>
       </c>
-      <c r="DL11" s="11"/>
-      <c r="EE11" s="10">
-        <f>1200000*($DH11/(SUM($DH$8:$DH$11)))</f>
+      <c r="DM11" s="11"/>
+      <c r="EF11" s="10">
+        <f>1200000*($DI11/(SUM($DI$8:$DI$11)))</f>
         <v>214454.07495167476</v>
       </c>
-      <c r="EH11" s="10">
+      <c r="EI11" s="10">
         <f t="shared" si="3"/>
         <v>209200.89782660294</v>
       </c>
-      <c r="EN11" s="10">
+      <c r="EO11" s="10">
         <f t="shared" si="4"/>
         <v>73220.314239311032</v>
       </c>
-      <c r="ER11" s="10">
+      <c r="ES11" s="10">
         <f t="shared" si="5"/>
         <v>496875.28701758874</v>
       </c>
-      <c r="ES11" s="10">
+      <c r="ET11" s="10">
         <f t="shared" si="40"/>
         <v>379888.48506573256</v>
       </c>
-      <c r="ET11" s="10">
+      <c r="EU11" s="10">
         <f t="shared" si="6"/>
         <v>9.5169906559838553E-3</v>
       </c>
-      <c r="EU11" s="10">
+      <c r="EV11" s="10">
         <f t="shared" si="7"/>
         <v>434.87555385312572</v>
       </c>
-      <c r="FS11" s="10">
-        <f>18300000*($DH11/(SUM($DH$8:$DH$11)))</f>
+      <c r="FT11" s="10">
+        <f>18300000*($DI11/(SUM($DI$8:$DI$11)))</f>
         <v>3270424.6430130401</v>
       </c>
-      <c r="GB11" s="10">
+      <c r="GC11" s="10">
         <f t="shared" si="8"/>
         <v>1440871.1837807279</v>
       </c>
-      <c r="GG11" s="10">
+      <c r="GH11" s="10">
         <f t="shared" si="41"/>
         <v>3270424.6430130401</v>
       </c>
-      <c r="GH11" s="10">
+      <c r="GI11" s="10">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI11" s="10">
+      <c r="GJ11" s="10">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ11" s="10">
+      <c r="GK11" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK11" s="10">
+      <c r="GL11" s="10">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL11" s="10">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM11" s="10">
         <f t="shared" si="46"/>
-        <v>1440871.1837807279</v>
+        <v>0</v>
       </c>
       <c r="GN11" s="10">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1440871.1837807279</v>
       </c>
       <c r="GO11" s="10">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP11" s="10">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ11" s="10">
         <f t="shared" si="47"/>
         <v>4711295.8267937675</v>
       </c>
     </row>
-    <row r="12" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D12" s="10" t="str">
         <f t="shared" si="48"/>
@@ -6140,26 +6170,26 @@
       </c>
       <c r="G12" s="10">
         <f t="shared" si="10"/>
-        <v>-10.260891113342993</v>
+        <v>-10.260891165757798</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="11"/>
-        <v>21.479368515403905</v>
+        <v>21.479368473084989</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="50"/>
-        <v>-8.9254944518169621E-2</v>
+        <v>-8.9254944539755798E-2</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="51"/>
-        <v>1.236481452664151E-2</v>
+        <v>1.2364814417668013E-2</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="12"/>
-        <v>-31.740259628746898</v>
+        <v>-31.740259638842787</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="52"/>
@@ -6167,11 +6197,11 @@
       </c>
       <c r="O12" s="6">
         <f t="shared" si="13"/>
-        <v>11.6427119474547</v>
+        <v>11.642711970380503</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="0"/>
-        <v>11.885972684301606</v>
+        <v>11.885972698917499</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="1"/>
@@ -6179,11 +6209,11 @@
       </c>
       <c r="R12" s="6">
         <f t="shared" si="14"/>
-        <v>0.86936777055079206</v>
+        <v>0.86936777059921011</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="15"/>
-        <v>0.86988152444055389</v>
+        <v>0.86988152447142186</v>
       </c>
       <c r="T12" s="6">
         <v>400</v>
@@ -6422,148 +6452,151 @@
       </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="CQ12" s="10">
+        <v>130</v>
+      </c>
+      <c r="CQ12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR12" s="10">
         <v>11</v>
       </c>
-      <c r="CR12" s="10">
+      <c r="CS12" s="10">
         <v>2236.3175999999999</v>
       </c>
-      <c r="CS12" s="10">
+      <c r="CT12" s="10">
         <v>193323</v>
       </c>
-      <c r="CT12" s="10">
+      <c r="CU12" s="10">
         <v>86</v>
       </c>
-      <c r="CU12" s="9"/>
-      <c r="CV12" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="CV12" s="9"/>
       <c r="CW12" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="CX12" s="10">
+        <v>130</v>
+      </c>
+      <c r="CX12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY12" s="10">
         <v>11</v>
       </c>
-      <c r="CY12" s="10">
-        <v>191779.3053328</v>
-      </c>
       <c r="CZ12" s="10">
-        <v>85.756739263153094</v>
+        <v>191779.30535138299</v>
       </c>
       <c r="DA12" s="10">
+        <v>85.756739271463005</v>
+      </c>
+      <c r="DB12" s="10">
         <v>2236.3175999999999</v>
       </c>
-      <c r="DB12" s="9"/>
-      <c r="DC12" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="DC12" s="9"/>
       <c r="DD12" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="DE12" s="11">
-        <v>218360.10825229899</v>
-      </c>
-      <c r="DF12" s="10">
+        <v>130</v>
+      </c>
+      <c r="DE12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DF12" s="11">
+        <v>218360.108303569</v>
+      </c>
+      <c r="DG12" s="10">
         <v>11</v>
       </c>
-      <c r="DG12" s="11">
-        <v>97.6427119474547</v>
-      </c>
       <c r="DH12" s="11">
+        <v>97.642711970380503</v>
+      </c>
+      <c r="DI12" s="11">
         <v>2236.3175284378299</v>
       </c>
-      <c r="DI12" s="9"/>
-      <c r="DL12" s="8"/>
-      <c r="EE12" s="6">
-        <f>1500000*($DH12/(SUM($DH$12:$DH$15)))</f>
+      <c r="DJ12" s="9"/>
+      <c r="DM12" s="8"/>
+      <c r="EF12" s="6">
+        <f>1500000*($DI12/(SUM($DI$12:$DI$15)))</f>
         <v>351883.23315001873</v>
       </c>
-      <c r="EH12" s="6">
+      <c r="EI12" s="6">
         <f t="shared" si="3"/>
         <v>535557.21819741093</v>
       </c>
-      <c r="EN12" s="6">
+      <c r="EO12" s="6">
         <f t="shared" si="4"/>
         <v>187445.02636909383</v>
       </c>
-      <c r="ER12" s="6">
+      <c r="ES12" s="6">
         <f t="shared" si="5"/>
         <v>1074885.4777165235</v>
       </c>
-      <c r="ES12" s="6">
+      <c r="ET12" s="6">
         <f t="shared" si="40"/>
         <v>821809.06641555659</v>
       </c>
-      <c r="ET12" s="6">
+      <c r="EU12" s="6">
         <f t="shared" si="6"/>
         <v>2.0588013360621778E-2</v>
       </c>
-      <c r="EU12" s="6">
+      <c r="EV12" s="6">
         <f t="shared" si="7"/>
         <v>367.48317533853424</v>
       </c>
-      <c r="EV12" s="18"/>
-      <c r="FS12" s="6">
-        <f>25300000*($DH12/(SUM($DH$12:$DH$15)))</f>
+      <c r="EW12" s="18"/>
+      <c r="FT12" s="6">
+        <f>25300000*($DI12/(SUM($DI$12:$DI$15)))</f>
         <v>5935097.1991303153</v>
       </c>
-      <c r="GB12" s="6">
+      <c r="GC12" s="6">
         <f t="shared" si="8"/>
         <v>3688650.3403346683</v>
       </c>
-      <c r="GF12" s="18"/>
-      <c r="GG12" s="6">
+      <c r="GG12" s="18"/>
+      <c r="GH12" s="6">
         <f t="shared" si="41"/>
         <v>5935097.1991303153</v>
       </c>
-      <c r="GH12" s="6">
+      <c r="GI12" s="6">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI12" s="6">
+      <c r="GJ12" s="6">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ12" s="6">
+      <c r="GK12" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK12" s="6">
+      <c r="GL12" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL12" s="6">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM12" s="6">
         <f t="shared" si="46"/>
-        <v>3688650.3403346683</v>
+        <v>0</v>
       </c>
       <c r="GN12" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3688650.3403346683</v>
       </c>
       <c r="GO12" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP12" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ12" s="6">
         <f t="shared" si="47"/>
         <v>9623747.5394649841</v>
       </c>
     </row>
-    <row r="13" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D13" s="10" t="str">
         <f t="shared" si="48"/>
@@ -6579,26 +6612,26 @@
       </c>
       <c r="G13" s="10">
         <f t="shared" si="10"/>
-        <v>-23.381999450720301</v>
+        <v>-23.53048679396781</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="11"/>
-        <v>-15.932375924432591</v>
+        <v>-15.932375958577808</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="50"/>
-        <v>-1.5733213314653272E-2</v>
+        <v>-1.6046810706572656E-2</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="51"/>
-        <v>-1.559039482156388E-2</v>
+        <v>-1.5903992285596025E-2</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="12"/>
-        <v>-7.4496235262877093</v>
+        <v>-7.5981108353900026</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="52"/>
@@ -6606,11 +6639,11 @@
       </c>
       <c r="O13" s="10">
         <f t="shared" si="13"/>
-        <v>4.2607124967343992</v>
+        <v>4.1122251764126929</v>
       </c>
       <c r="P13" s="10">
         <f t="shared" si="0"/>
-        <v>4.436349158013897</v>
+        <v>4.2878618635274961</v>
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="1"/>
@@ -6618,11 +6651,11 @@
       </c>
       <c r="R13" s="10">
         <f t="shared" si="14"/>
-        <v>0.85377737572922818</v>
+        <v>0.85346377831361409</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="15"/>
-        <v>0.85414831112590062</v>
+        <v>0.85383471376484921</v>
       </c>
       <c r="T13" s="6">
         <v>400</v>
@@ -6857,143 +6890,146 @@
         <v>712028.552657263</v>
       </c>
       <c r="CP13" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="CQ13" s="10">
+        <v>132</v>
+      </c>
+      <c r="CQ13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR13" s="10">
         <v>12</v>
       </c>
-      <c r="CR13" s="10">
+      <c r="CS13" s="10">
         <v>3339.3888000000002</v>
       </c>
-      <c r="CS13" s="10">
+      <c r="CT13" s="10">
         <v>233171</v>
       </c>
-      <c r="CT13" s="10">
+      <c r="CU13" s="10">
         <v>70</v>
       </c>
-      <c r="CV13" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="CW13" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="CX13" s="10">
+        <v>132</v>
+      </c>
+      <c r="CX13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CY13" s="10">
         <v>12</v>
       </c>
-      <c r="CY13" s="10">
-        <v>233170.696900454</v>
-      </c>
       <c r="CZ13" s="10">
-        <v>69.824363338720502</v>
+        <v>233170.69681417901</v>
       </c>
       <c r="DA13" s="10">
+        <v>69.824363312885197</v>
+      </c>
+      <c r="DB13" s="10">
         <v>3339.3888000000002</v>
       </c>
-      <c r="DC13" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="DD13" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="DE13" s="11">
-        <v>247985.38365608201</v>
-      </c>
-      <c r="DF13" s="10">
+        <v>132</v>
+      </c>
+      <c r="DE13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="DF13" s="11">
+        <v>247489.52677752601</v>
+      </c>
+      <c r="DG13" s="10">
         <v>12</v>
       </c>
-      <c r="DG13" s="11">
-        <v>74.260712496734399</v>
-      </c>
       <c r="DH13" s="11">
+        <v>74.112225176412693</v>
+      </c>
+      <c r="DI13" s="11">
         <v>3339.38869313956</v>
       </c>
-      <c r="DL13" s="11"/>
-      <c r="EE13" s="10">
-        <f>1500000*($DH13/(SUM($DH$12:$DH$15)))</f>
+      <c r="DM13" s="11"/>
+      <c r="EF13" s="10">
+        <f>1500000*($DI13/(SUM($DI$12:$DI$15)))</f>
         <v>525450.82491367299</v>
       </c>
-      <c r="EH13" s="10">
+      <c r="EI13" s="10">
         <f t="shared" si="3"/>
         <v>799722.62267559709</v>
       </c>
-      <c r="EN13" s="10">
+      <c r="EO13" s="10">
         <f t="shared" si="4"/>
         <v>279902.91793645901</v>
       </c>
-      <c r="ER13" s="10">
+      <c r="ES13" s="10">
         <f t="shared" si="5"/>
         <v>1605076.365525729</v>
       </c>
-      <c r="ES13" s="10">
+      <c r="ET13" s="10">
         <f t="shared" si="40"/>
         <v>1227169.1606445238</v>
       </c>
-      <c r="ET13" s="10">
+      <c r="EU13" s="10">
         <f t="shared" si="6"/>
         <v>3.0743120400568761E-2</v>
       </c>
-      <c r="EU13" s="10">
+      <c r="EV13" s="10">
         <f t="shared" si="7"/>
         <v>367.48317533853429</v>
       </c>
-      <c r="FS13" s="10">
-        <f>25300000*($DH13/(SUM($DH$12:$DH$15)))</f>
+      <c r="FT13" s="10">
+        <f>25300000*($DI13/(SUM($DI$12:$DI$15)))</f>
         <v>8862603.9135439508</v>
       </c>
-      <c r="GB13" s="10">
+      <c r="GC13" s="10">
         <f t="shared" si="8"/>
         <v>5508089.5636781752</v>
       </c>
-      <c r="GG13" s="10">
+      <c r="GH13" s="10">
         <f t="shared" si="41"/>
         <v>8862603.9135439508</v>
       </c>
-      <c r="GH13" s="10">
+      <c r="GI13" s="10">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI13" s="10">
+      <c r="GJ13" s="10">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ13" s="10">
+      <c r="GK13" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK13" s="10">
+      <c r="GL13" s="10">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL13" s="10">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM13" s="10">
         <f t="shared" si="46"/>
-        <v>5508089.5636781752</v>
+        <v>0</v>
       </c>
       <c r="GN13" s="10">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>5508089.5636781752</v>
       </c>
       <c r="GO13" s="10">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP13" s="10">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ13" s="10">
         <f t="shared" si="47"/>
         <v>14370693.477222126</v>
       </c>
     </row>
-    <row r="14" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D14" s="10" t="str">
         <f t="shared" si="48"/>
@@ -7009,26 +7045,26 @@
       </c>
       <c r="G14" s="10">
         <f t="shared" si="10"/>
-        <v>15.901580328749503</v>
+        <v>15.984703571139406</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="11"/>
-        <v>25.1222412637579</v>
+        <v>25.122241317038501</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="50"/>
-        <v>-1.9473551231234176E-2</v>
+        <v>-1.9297999425020529E-2</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="51"/>
-        <v>-1.0767594358607302E-2</v>
+        <v>-1.0592042439867999E-2</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="12"/>
-        <v>-9.2206609350083966</v>
+        <v>-9.1375377458990954</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="52"/>
@@ -7036,11 +7072,11 @@
       </c>
       <c r="O14" s="6">
         <f t="shared" si="13"/>
-        <v>-0.83770717451609755</v>
+        <v>-0.90307125244790143</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="0"/>
-        <v>-4.7843117769944996</v>
+        <v>-4.8496758823715993</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="1"/>
@@ -7048,11 +7084,11 @@
       </c>
       <c r="R14" s="6">
         <f t="shared" si="14"/>
-        <v>0.84300978137062088</v>
+        <v>0.84287173587374609</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="15"/>
-        <v>0.83467475989466644</v>
+        <v>0.83453671433982868</v>
       </c>
       <c r="T14" s="6">
         <v>400</v>
@@ -7291,148 +7327,151 @@
       </c>
       <c r="CO14" s="9"/>
       <c r="CP14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="CQ14" s="10">
+        <v>134</v>
+      </c>
+      <c r="CQ14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CR14" s="10">
         <v>13</v>
       </c>
-      <c r="CR14" s="10">
+      <c r="CS14" s="10">
         <v>2346.6552000000001</v>
       </c>
-      <c r="CS14" s="10">
+      <c r="CT14" s="10">
         <v>214553</v>
       </c>
-      <c r="CT14" s="10">
+      <c r="CU14" s="10">
         <v>91</v>
       </c>
-      <c r="CU14" s="9"/>
-      <c r="CV14" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="CV14" s="9"/>
       <c r="CW14" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="CX14" s="10">
+        <v>134</v>
+      </c>
+      <c r="CX14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CY14" s="10">
         <v>13</v>
       </c>
-      <c r="CY14" s="10">
-        <v>222806.94341275</v>
-      </c>
       <c r="CZ14" s="10">
-        <v>94.946604602478402</v>
+        <v>222806.94347715401</v>
       </c>
       <c r="DA14" s="10">
+        <v>94.946604629923698</v>
+      </c>
+      <c r="DB14" s="10">
         <v>2346.6552000000001</v>
       </c>
-      <c r="DB14" s="9"/>
-      <c r="DC14" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="DC14" s="9"/>
       <c r="DD14" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="DE14" s="11">
-        <v>211579.80653229001</v>
-      </c>
-      <c r="DF14" s="10">
+        <v>134</v>
+      </c>
+      <c r="DE14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="DF14" s="11">
+        <v>211426.419583827</v>
+      </c>
+      <c r="DG14" s="10">
         <v>13</v>
       </c>
-      <c r="DG14" s="11">
-        <v>90.162292825483902</v>
-      </c>
       <c r="DH14" s="11">
+        <v>90.096928747552099</v>
+      </c>
+      <c r="DI14" s="11">
         <v>2346.6551249070299</v>
       </c>
-      <c r="DI14" s="9"/>
-      <c r="DL14" s="8"/>
-      <c r="EE14" s="6">
-        <f>1500000*($DH14/(SUM($DH$12:$DH$15)))</f>
+      <c r="DJ14" s="9"/>
+      <c r="DM14" s="8"/>
+      <c r="EF14" s="6">
+        <f>1500000*($DI14/(SUM($DI$12:$DI$15)))</f>
         <v>369244.78833610442</v>
       </c>
-      <c r="EH14" s="6">
+      <c r="EI14" s="6">
         <f t="shared" si="3"/>
         <v>561981.05804850394</v>
       </c>
-      <c r="EN14" s="6">
+      <c r="EO14" s="6">
         <f t="shared" si="4"/>
         <v>196693.37031697639</v>
       </c>
-      <c r="ER14" s="6">
+      <c r="ES14" s="6">
         <f t="shared" si="5"/>
         <v>1127919.2167015849</v>
       </c>
-      <c r="ES14" s="6">
+      <c r="ET14" s="6">
         <f t="shared" si="40"/>
         <v>862356.27672528022</v>
       </c>
-      <c r="ET14" s="6">
+      <c r="EU14" s="6">
         <f t="shared" si="6"/>
         <v>2.1603804669950568E-2</v>
       </c>
-      <c r="EU14" s="6">
+      <c r="EV14" s="6">
         <f t="shared" si="7"/>
         <v>367.48317533853429</v>
       </c>
-      <c r="EV14" s="18"/>
-      <c r="FS14" s="6">
-        <f>25300000*($DH14/(SUM($DH$12:$DH$15)))</f>
+      <c r="EW14" s="18"/>
+      <c r="FT14" s="6">
+        <f>25300000*($DI14/(SUM($DI$12:$DI$15)))</f>
         <v>6227928.7632689606</v>
       </c>
-      <c r="GB14" s="6">
+      <c r="GC14" s="6">
         <f t="shared" si="8"/>
         <v>3870644.537309071</v>
       </c>
-      <c r="GF14" s="18"/>
-      <c r="GG14" s="6">
+      <c r="GG14" s="18"/>
+      <c r="GH14" s="6">
         <f t="shared" si="41"/>
         <v>6227928.7632689606</v>
       </c>
-      <c r="GH14" s="6">
+      <c r="GI14" s="6">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI14" s="6">
+      <c r="GJ14" s="6">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ14" s="6">
+      <c r="GK14" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK14" s="6">
+      <c r="GL14" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL14" s="6">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM14" s="6">
         <f t="shared" si="46"/>
-        <v>3870644.537309071</v>
+        <v>0</v>
       </c>
       <c r="GN14" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3870644.537309071</v>
       </c>
       <c r="GO14" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP14" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ14" s="6">
         <f t="shared" si="47"/>
         <v>10098573.300578032</v>
       </c>
     </row>
-    <row r="15" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D15" s="10" t="str">
         <f t="shared" si="48"/>
@@ -7448,26 +7487,26 @@
       </c>
       <c r="G15" s="10">
         <f t="shared" si="10"/>
-        <v>-5.8402228429624046</v>
+        <v>-5.830924597869199</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="11"/>
-        <v>-3.0875422118143945</v>
+        <v>-3.0875421919927959</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="50"/>
-        <v>-5.8135168044591845E-3</v>
+        <v>-5.7938794414261752E-3</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="51"/>
-        <v>4.5613358317874164E-3</v>
+        <v>4.5809732366828282E-3</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" si="12"/>
-        <v>-2.7526806311480101</v>
+        <v>-2.7433824058764031</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" si="52"/>
@@ -7475,11 +7514,11 @@
       </c>
       <c r="O15" s="10">
         <f t="shared" si="13"/>
-        <v>-2.997484331553693</v>
+        <v>-3.0721466545787024</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="0"/>
-        <v>-2.0316311458464895</v>
+        <v>-2.1062934764951962</v>
       </c>
       <c r="Q15" s="10">
         <f t="shared" si="1"/>
@@ -7487,11 +7526,11 @@
       </c>
       <c r="R15" s="10">
         <f t="shared" si="14"/>
-        <v>0.83844844553883346</v>
+        <v>0.83829076263706326</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="15"/>
-        <v>0.84048827669912562</v>
+        <v>0.84033059378125485</v>
       </c>
       <c r="T15" s="6">
         <v>400</v>
@@ -7726,146 +7765,149 @@
         <v>659483.63147888798</v>
       </c>
       <c r="CP15" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="CQ15" s="10">
+        <v>136</v>
+      </c>
+      <c r="CQ15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="CR15" s="10">
         <v>14</v>
       </c>
-      <c r="CR15" s="10">
+      <c r="CS15" s="10">
         <v>1610.5632000000001</v>
       </c>
-      <c r="CS15" s="10">
+      <c r="CT15" s="10">
         <v>159402</v>
       </c>
-      <c r="CT15" s="10">
+      <c r="CU15" s="10">
         <v>99</v>
       </c>
-      <c r="CV15" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="CW15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="CX15" s="10">
+        <v>136</v>
+      </c>
+      <c r="CX15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY15" s="10">
         <v>14</v>
       </c>
-      <c r="CY15" s="10">
-        <v>157890.18920249699</v>
-      </c>
       <c r="CZ15" s="10">
-        <v>98.034146814292797</v>
+        <v>157890.18921477499</v>
       </c>
       <c r="DA15" s="10">
+        <v>98.034146821916494</v>
+      </c>
+      <c r="DB15" s="10">
         <v>1610.5632000000001</v>
       </c>
-      <c r="DC15" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="DD15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="DE15" s="11">
-        <v>154618.113895243</v>
-      </c>
-      <c r="DF15" s="10">
+        <v>136</v>
+      </c>
+      <c r="DE15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="DF15" s="11">
+        <v>154497.8655092</v>
+      </c>
+      <c r="DG15" s="10">
         <v>14</v>
       </c>
-      <c r="DG15" s="11">
-        <v>96.002515668446307</v>
-      </c>
       <c r="DH15" s="11">
+        <v>95.927853345421298</v>
+      </c>
+      <c r="DI15" s="11">
         <v>1610.5631484619701</v>
       </c>
-      <c r="DL15" s="11"/>
-      <c r="EE15" s="10">
-        <f>1500000*($DH15/(SUM($DH$12:$DH$15)))</f>
+      <c r="DM15" s="11"/>
+      <c r="EF15" s="10">
+        <f>1500000*($DI15/(SUM($DI$12:$DI$15)))</f>
         <v>253421.15360020389</v>
       </c>
-      <c r="EH15" s="10">
+      <c r="EI15" s="10">
         <f t="shared" si="3"/>
         <v>385700.46898665879</v>
       </c>
-      <c r="EN15" s="10">
+      <c r="EO15" s="10">
         <f t="shared" si="4"/>
         <v>134995.16414533058</v>
       </c>
-      <c r="ER15" s="10">
+      <c r="ES15" s="10">
         <f t="shared" si="5"/>
         <v>774116.7867321932</v>
       </c>
-      <c r="ES15" s="10">
+      <c r="ET15" s="10">
         <f t="shared" si="40"/>
         <v>591854.8598800319</v>
       </c>
-      <c r="ET15" s="10">
+      <c r="EU15" s="10">
         <f t="shared" si="6"/>
         <v>1.4827185852190991E-2</v>
       </c>
-      <c r="EU15" s="10">
+      <c r="EV15" s="10">
         <f t="shared" si="7"/>
         <v>367.48317533853424</v>
       </c>
-      <c r="FS15" s="10">
-        <f>25300000*($DH15/(SUM($DH$12:$DH$15)))</f>
+      <c r="FT15" s="10">
+        <f>25300000*($DI15/(SUM($DI$12:$DI$15)))</f>
         <v>4274370.1240567723</v>
       </c>
-      <c r="GB15" s="10">
+      <c r="GC15" s="10">
         <f t="shared" si="8"/>
         <v>2656511.9801456123</v>
       </c>
-      <c r="GG15" s="10">
+      <c r="GH15" s="10">
         <f t="shared" si="41"/>
         <v>4274370.1240567723</v>
       </c>
-      <c r="GH15" s="10">
+      <c r="GI15" s="10">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="GI15" s="10">
+      <c r="GJ15" s="10">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="GJ15" s="10">
+      <c r="GK15" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="GK15" s="10">
+      <c r="GL15" s="10">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="GL15" s="10">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GM15" s="10">
         <f t="shared" si="46"/>
-        <v>2656511.9801456123</v>
+        <v>0</v>
       </c>
       <c r="GN15" s="10">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2656511.9801456123</v>
       </c>
       <c r="GO15" s="10">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="GP15" s="10">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="GQ15" s="10">
         <f t="shared" si="47"/>
         <v>6930882.1042023841</v>
       </c>
     </row>
-    <row r="16" spans="1:198" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:199" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>35</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N16" s="10">
         <f>N15</f>
@@ -7873,11 +7915,11 @@
       </c>
       <c r="O16" s="10">
         <f t="shared" si="13"/>
-        <v>54.862146073804993</v>
+        <v>54.832929625095005</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="0"/>
-        <v>60.063064507107093</v>
+        <v>60.462184574855407</v>
       </c>
       <c r="Q16" s="10">
         <f t="shared" si="1"/>
@@ -7885,11 +7927,11 @@
       </c>
       <c r="R16" s="10">
         <f t="shared" si="14"/>
-        <v>0.76051270754061251</v>
+        <v>0.76046385871750222</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="15"/>
-        <v>0.76920845106103874</v>
+        <v>0.76987576507249722</v>
       </c>
       <c r="T16" s="6">
         <v>400</v>
@@ -8124,129 +8166,128 @@
         <v>121269.07090730401</v>
       </c>
       <c r="CP16" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="CQ16" s="10">
+        <v>140</v>
+      </c>
+      <c r="CQ16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="CR16" s="10">
         <v>35</v>
       </c>
-      <c r="CR16" s="10">
+      <c r="CS16" s="10">
         <v>5471.16</v>
       </c>
-      <c r="CS16" s="10">
+      <c r="CT16" s="10">
         <v>340265</v>
       </c>
-      <c r="CT16" s="10">
+      <c r="CU16" s="10">
         <v>62</v>
       </c>
-      <c r="CV16" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="CW16" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="CX16" s="10">
+        <v>140</v>
+      </c>
+      <c r="CX16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="CY16" s="10">
         <v>35</v>
       </c>
-      <c r="CY16" s="10">
-        <v>310756.863104455</v>
-      </c>
       <c r="CZ16" s="10">
-        <v>56.7990815666979</v>
+        <v>308413.36548906902</v>
       </c>
       <c r="DA16" s="10">
+        <v>56.370745050239599</v>
+      </c>
+      <c r="DB16" s="10">
         <v>5471.16</v>
       </c>
-      <c r="DC16" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="DD16" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="DE16" s="11">
-        <v>639371.47865327401</v>
-      </c>
-      <c r="DF16" s="10">
+        <v>140</v>
+      </c>
+      <c r="DE16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="DF16" s="11">
+        <v>639211.63079286297</v>
+      </c>
+      <c r="DG16" s="10">
         <v>35</v>
       </c>
-      <c r="DG16" s="11">
-        <v>116.86214607380499</v>
-      </c>
       <c r="DH16" s="11">
+        <v>116.83292962509501</v>
+      </c>
+      <c r="DI16" s="11">
         <v>5471.15982492288</v>
       </c>
-      <c r="DL16" s="11"/>
-      <c r="DN16" s="10">
+      <c r="DM16" s="11"/>
+      <c r="DO16" s="10">
         <v>4000000</v>
       </c>
-      <c r="DY16" s="10">
+      <c r="DZ16" s="10">
         <v>1003000</v>
       </c>
-      <c r="EA16" s="10">
+      <c r="EB16" s="10">
         <v>1325000</v>
       </c>
-      <c r="EB16" s="10">
+      <c r="EC16" s="10">
         <v>760000</v>
       </c>
-      <c r="EQ16" s="12">
+      <c r="ER16" s="12">
         <v>9500</v>
       </c>
-      <c r="ER16" s="10">
-        <f t="shared" ref="ER16:ER23" si="53">SUM(DJ16:EN16)</f>
+      <c r="ES16" s="10">
+        <f t="shared" ref="ES16:ES23" si="53">SUM(DK16:EO16)</f>
         <v>7088000</v>
       </c>
-      <c r="ES16" s="10">
+      <c r="ET16" s="10">
         <f t="shared" si="40"/>
         <v>5419165.8399999999</v>
       </c>
-      <c r="ET16" s="10">
+      <c r="EU16" s="10">
         <f t="shared" si="6"/>
         <v>0.13576128966789547</v>
       </c>
-      <c r="EU16" s="10">
+      <c r="EV16" s="10">
         <f t="shared" si="7"/>
         <v>990.49671612844668</v>
       </c>
-      <c r="FA16" s="10">
+      <c r="FB16" s="10">
         <v>27384615</v>
       </c>
-      <c r="FL16" s="10">
+      <c r="FM16" s="10">
         <v>7658450</v>
       </c>
-      <c r="FO16" s="10">
+      <c r="FP16" s="10">
         <v>21015965</v>
       </c>
-      <c r="FP16" s="10">
+      <c r="FQ16" s="10">
         <v>11273117</v>
       </c>
-      <c r="GE16" s="10">
+      <c r="GF16" s="10">
         <v>700000</v>
       </c>
-      <c r="GG16" s="10">
-        <f t="shared" ref="GG16:GG23" si="54">FS16+FT16</f>
-        <v>0</v>
-      </c>
       <c r="GH16" s="10">
-        <f t="shared" ref="GH16:GH23" si="55">FU16</f>
+        <f t="shared" ref="GH16:GH23" si="54">FT16+FU16</f>
         <v>0</v>
       </c>
       <c r="GI16" s="10">
-        <f t="shared" ref="GI16:GI23" si="56">FV16+FW16</f>
+        <f t="shared" ref="GI16:GI23" si="55">FV16</f>
         <v>0</v>
       </c>
       <c r="GJ16" s="10">
-        <f t="shared" ref="GJ16:GJ23" si="57">FX16</f>
+        <f t="shared" ref="GJ16:GJ23" si="56">FW16+FX16</f>
         <v>0</v>
       </c>
       <c r="GK16" s="10">
-        <f t="shared" ref="GK16:GK23" si="58">FY16+FZ16</f>
+        <f t="shared" ref="GK16:GK23" si="57">FY16</f>
         <v>0</v>
       </c>
       <c r="GL16" s="10">
-        <f t="shared" ref="GL16:GO23" si="59">GA16</f>
+        <f t="shared" ref="GL16:GL23" si="58">FZ16+GA16</f>
         <v>0</v>
       </c>
       <c r="GM16" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="GM16:GP23" si="59">GB16</f>
         <v>0</v>
       </c>
       <c r="GN16" s="10">
@@ -8258,19 +8299,23 @@
         <v>0</v>
       </c>
       <c r="GP16" s="10">
-        <f t="shared" ref="GP16:GP23" si="60">SUM(EW16:GB16)</f>
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="GQ16" s="10">
+        <f t="shared" ref="GQ16:GQ23" si="60">SUM(EX16:GC16)</f>
         <v>67332147</v>
       </c>
     </row>
-    <row r="17" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D17" s="10" t="str">
         <f t="shared" si="48"/>
@@ -8281,31 +8326,31 @@
         <v>161398.95962404634</v>
       </c>
       <c r="F17" s="10">
-        <f>IF(Z17&gt;Z16,EU17-EU16,EU16-EU17)</f>
+        <f>IF(Z17&gt;Z16,EV17-EV16,EV16-EV17)</f>
         <v>109.94762119681377</v>
       </c>
       <c r="G17" s="10">
-        <f>IF(Z17&gt;Z16,DG17-DG16,DG16-DG17)</f>
-        <v>-6.7498718711369889</v>
+        <f>IF(Z17&gt;Z16,DH17-DH16,DH16-DH17)</f>
+        <v>-6.7206554485550072</v>
       </c>
       <c r="H17" s="10">
-        <f>IF(Z17&gt;Z16,CZ17-CZ16,CZ16-CZ17)</f>
-        <v>-3.5884088234720011</v>
+        <f>IF(Z17&gt;Z16,DA17-DA16,DA16-DA17)</f>
+        <v>-3.0704955968858982</v>
       </c>
       <c r="I17" s="10">
         <f>IF(Z17&gt;Z16,S17-S16,S16-S17)</f>
-        <v>-3.2375989422645191E-2</v>
+        <v>-3.3187761336790023E-2</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" ref="J17:J19" si="62">IF(Z17&gt;Z16,R17-R16,R16-R17)</f>
-        <v>-2.8178516125739628E-2</v>
+        <v>-2.8129667344765186E-2</v>
       </c>
       <c r="K17" s="10">
         <f>IF(Z17&gt;Z16,P17-P16,P16-P17)</f>
-        <v>-3.1614630476649879</v>
+        <v>-3.6501598516691089</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="52"/>
@@ -8313,11 +8358,11 @@
       </c>
       <c r="O17" s="6">
         <f t="shared" si="13"/>
-        <v>54.112274202668004</v>
+        <v>54.112274176539998</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="0"/>
-        <v>56.901601459442105</v>
+        <v>56.812024723186298</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
@@ -8325,11 +8370,11 @@
       </c>
       <c r="R17" s="6">
         <f t="shared" si="14"/>
-        <v>0.73233419141487288</v>
+        <v>0.73233419137273703</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="15"/>
-        <v>0.73683246163839355</v>
+        <v>0.7366880037357072</v>
       </c>
       <c r="T17" s="6">
         <v>400</v>
@@ -8568,124 +8613,123 @@
       </c>
       <c r="CO17" s="9"/>
       <c r="CP17" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="CQ17" s="10">
+        <v>142</v>
+      </c>
+      <c r="CQ17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="CR17" s="10">
         <v>36</v>
       </c>
-      <c r="CR17" s="10">
+      <c r="CS17" s="10">
         <v>2667.9144000000001</v>
       </c>
-      <c r="CS17" s="10">
+      <c r="CT17" s="10">
         <v>148613</v>
       </c>
-      <c r="CT17" s="10">
+      <c r="CU17" s="10">
         <v>56</v>
       </c>
-      <c r="CU17" s="9"/>
-      <c r="CV17" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="CV17" s="9"/>
       <c r="CW17" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX17" s="10">
+        <v>142</v>
+      </c>
+      <c r="CX17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY17" s="10">
         <v>36</v>
       </c>
-      <c r="CY17" s="10">
-        <v>141961.52004534</v>
-      </c>
       <c r="CZ17" s="10">
-        <v>53.210672743225899</v>
+        <v>142200.50304019399</v>
       </c>
       <c r="DA17" s="10">
+        <v>53.3002494533537</v>
+      </c>
+      <c r="DB17" s="10">
         <v>2667.9144000000001</v>
       </c>
-      <c r="DB17" s="9"/>
-      <c r="DC17" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="DC17" s="9"/>
       <c r="DD17" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="DE17" s="11">
-        <v>293770.11256140401</v>
-      </c>
-      <c r="DF17" s="10">
+        <v>142</v>
+      </c>
+      <c r="DE17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="DF17" s="11">
+        <v>293770.11249169701</v>
+      </c>
+      <c r="DG17" s="10">
         <v>36</v>
       </c>
-      <c r="DG17" s="11">
-        <v>110.112274202668</v>
-      </c>
       <c r="DH17" s="11">
+        <v>110.11227417654</v>
+      </c>
+      <c r="DI17" s="11">
         <v>2667.9143146267402</v>
       </c>
-      <c r="DI17" s="9"/>
-      <c r="DL17" s="8"/>
-      <c r="DN17" s="6">
+      <c r="DJ17" s="9"/>
+      <c r="DM17" s="8"/>
+      <c r="DO17" s="6">
         <v>3000000</v>
       </c>
-      <c r="DY17" s="6">
+      <c r="DZ17" s="6">
         <v>175000</v>
       </c>
-      <c r="EA17" s="6">
+      <c r="EB17" s="6">
         <v>325000</v>
       </c>
-      <c r="EE17" s="6">
+      <c r="EF17" s="6">
         <v>340000</v>
       </c>
-      <c r="ER17" s="6">
+      <c r="ES17" s="6">
         <f t="shared" si="53"/>
         <v>3840000</v>
       </c>
-      <c r="ES17" s="6">
+      <c r="ET17" s="6">
         <f t="shared" si="40"/>
         <v>2935891.1999999997</v>
       </c>
-      <c r="ET17" s="6">
+      <c r="EU17" s="6">
         <f t="shared" si="6"/>
         <v>7.3550134357324867E-2</v>
       </c>
-      <c r="EU17" s="6">
+      <c r="EV17" s="6">
         <f t="shared" si="7"/>
         <v>1100.4443373252604</v>
       </c>
-      <c r="EV17" s="18"/>
-      <c r="FA17" s="6">
+      <c r="EW17" s="18"/>
+      <c r="FB17" s="6">
         <v>9538462</v>
       </c>
-      <c r="FM17" s="6">
+      <c r="FN17" s="6">
         <v>2667550</v>
       </c>
-      <c r="FO17" s="6">
+      <c r="FP17" s="6">
         <v>6830187</v>
       </c>
-      <c r="FS17" s="6">
+      <c r="FT17" s="6">
         <v>6061143</v>
       </c>
-      <c r="GF17" s="18"/>
-      <c r="GG17" s="6">
+      <c r="GG17" s="18"/>
+      <c r="GH17" s="6">
         <f t="shared" si="54"/>
         <v>6061143</v>
       </c>
-      <c r="GH17" s="6">
+      <c r="GI17" s="6">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="GI17" s="6">
+      <c r="GJ17" s="6">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="GJ17" s="6">
+      <c r="GK17" s="6">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="GK17" s="6">
+      <c r="GL17" s="6">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="GL17" s="6">
-        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="GM17" s="6">
@@ -8701,19 +8745,23 @@
         <v>0</v>
       </c>
       <c r="GP17" s="6">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="GQ17" s="6">
         <f t="shared" si="60"/>
         <v>25097342</v>
       </c>
     </row>
-    <row r="18" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>37</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="str">
         <f t="shared" si="48"/>
@@ -8724,31 +8772,31 @@
         <v>228690.73029010755</v>
       </c>
       <c r="F18" s="10">
-        <f>IF(Z18&gt;Z17,EU18-EU17,EU17-EU18)</f>
+        <f>IF(Z18&gt;Z17,EV18-EV17,EV17-EV18)</f>
         <v>-1100.4443373252604</v>
       </c>
       <c r="G18" s="10">
-        <f>IF(Z18&gt;Z17,DG18-DG17,DG17-DG18)</f>
-        <v>32.264611188605983</v>
+        <f>IF(Z18&gt;Z17,DH18-DH17,DH17-DH18)</f>
+        <v>32.056550573702012</v>
       </c>
       <c r="H18" s="10">
-        <f>IF(Z18&gt;Z17,CZ18-CZ17,CZ17-CZ18)</f>
-        <v>23.972979238222607</v>
+        <f>IF(Z18&gt;Z17,DA18-DA17,DA17-DA18)</f>
+        <v>23.8834024974649</v>
       </c>
       <c r="I18" s="10">
         <f>IF(Z18&gt;Z17,S18-S17,S17-S18)</f>
-        <v>0.36316753836160653</v>
+        <v>0.36331199626429289</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="62"/>
-        <v>0.36766580858512721</v>
+        <v>0.36766580862726306</v>
       </c>
       <c r="K18" s="10">
         <f>IF(Z18&gt;Z17,P18-P17,P17-P18)</f>
-        <v>8.2916319503833762</v>
+        <v>8.173148076237112</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="52"/>
@@ -8756,11 +8804,11 @@
       </c>
       <c r="O18" s="10">
         <f t="shared" si="13"/>
-        <v>49.376885391273987</v>
+        <v>49.16882475024201</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="0"/>
-        <v>65.193233409825481</v>
+        <v>64.98517279942341</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="1"/>
@@ -9007,95 +9055,94 @@
         <v>513646.29099542397</v>
       </c>
       <c r="CP18" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="CQ18" s="10">
+        <v>144</v>
+      </c>
+      <c r="CQ18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CR18" s="10">
         <v>37</v>
       </c>
-      <c r="CR18" s="10">
+      <c r="CS18" s="10">
         <v>2648.1024000000002</v>
       </c>
-      <c r="CS18" s="10">
+      <c r="CT18" s="10">
         <v>246181</v>
       </c>
-      <c r="CT18" s="10">
+      <c r="CU18" s="10">
         <v>93</v>
       </c>
-      <c r="CV18" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="CW18" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX18" s="10">
+        <v>144</v>
+      </c>
+      <c r="CX18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="CY18" s="10">
         <v>37</v>
       </c>
-      <c r="CY18" s="10">
-        <v>204390.21405283801</v>
-      </c>
       <c r="CZ18" s="10">
-        <v>77.183651981448506</v>
+        <v>204390.213971727</v>
       </c>
       <c r="DA18" s="10">
+        <v>77.1836519508186</v>
+      </c>
+      <c r="DB18" s="10">
         <v>2648.1024000000002</v>
       </c>
-      <c r="DC18" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="DD18" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="DE18" s="11">
-        <v>377028.55984424398</v>
-      </c>
-      <c r="DF18" s="10">
+        <v>144</v>
+      </c>
+      <c r="DE18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="DF18" s="11">
+        <v>376477.59397901199</v>
+      </c>
+      <c r="DG18" s="10">
         <v>37</v>
       </c>
-      <c r="DG18" s="11">
-        <v>142.37688539127399</v>
-      </c>
       <c r="DH18" s="11">
+        <v>142.16882475024201</v>
+      </c>
+      <c r="DI18" s="11">
         <v>2648.1023152607199</v>
       </c>
-      <c r="DL18" s="11"/>
-      <c r="ER18" s="10">
+      <c r="DM18" s="11"/>
+      <c r="ES18" s="10">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="ES18" s="10">
+      <c r="ET18" s="10">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="ET18" s="10">
+      <c r="EU18" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="EU18" s="10">
+      <c r="EV18" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="GG18" s="10">
+      <c r="GH18" s="10">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="GH18" s="10">
+      <c r="GI18" s="10">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="GI18" s="10">
+      <c r="GJ18" s="10">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="GJ18" s="10">
+      <c r="GK18" s="10">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="GK18" s="10">
+      <c r="GL18" s="10">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="GL18" s="10">
-        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="GM18" s="10">
@@ -9111,19 +9158,23 @@
         <v>0</v>
       </c>
       <c r="GP18" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="GQ18" s="10">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D19" s="10" t="str">
         <f t="shared" si="48"/>
@@ -9134,16 +9185,16 @@
         <v>231552.2852721879</v>
       </c>
       <c r="F19" s="10">
-        <f>IF(Z19&gt;Z18,EU19-EU18,EU18-EU19)</f>
+        <f>IF(Z19&gt;Z18,EV19-EV18,EV18-EV19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="10">
-        <f>IF(Z19&gt;Z18,DG19-DG18,DG18-DG19)</f>
-        <v>-14.393422212933984</v>
+        <f>IF(Z19&gt;Z18,DH19-DH18,DH18-DH19)</f>
+        <v>-14.185361543319004</v>
       </c>
       <c r="H19" s="10">
-        <f>IF(Z19&gt;Z18,CZ19-CZ18,CZ18-CZ19)</f>
-        <v>-4.9054336553613069</v>
+        <f>IF(Z19&gt;Z18,DA19-DA18,DA18-DA19)</f>
+        <v>-5.0624654534802005</v>
       </c>
       <c r="I19" s="10">
         <f>IF(Z19&gt;Z18,S19-S18,S18-S19)</f>
@@ -9155,10 +9206,10 @@
       </c>
       <c r="K19" s="10">
         <f>IF(Z19&gt;Z18,P19-P18,P18-P19)</f>
-        <v>-9.4879885575726775</v>
+        <v>-9.1228960898388038</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="52"/>
@@ -9166,11 +9217,11 @@
       </c>
       <c r="O19" s="6">
         <f t="shared" si="13"/>
-        <v>57.983463178340003</v>
+        <v>57.983463206923005</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>55.705244852252804</v>
+        <v>55.862276709584606</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
@@ -9421,100 +9472,99 @@
       </c>
       <c r="CO19" s="9"/>
       <c r="CP19" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="CQ19" s="10">
+        <v>146</v>
+      </c>
+      <c r="CQ19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="CR19" s="10">
         <v>38</v>
       </c>
-      <c r="CR19" s="10">
+      <c r="CS19" s="10">
         <v>2273.5032000000001</v>
       </c>
-      <c r="CS19" s="10">
+      <c r="CT19" s="10">
         <v>159539</v>
       </c>
-      <c r="CT19" s="10">
+      <c r="CU19" s="10">
         <v>70</v>
       </c>
-      <c r="CU19" s="9"/>
-      <c r="CV19" s="10" t="s">
-        <v>152</v>
-      </c>
+      <c r="CV19" s="9"/>
       <c r="CW19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="CX19" s="10">
+        <v>146</v>
+      </c>
+      <c r="CX19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="CY19" s="10">
         <v>38</v>
       </c>
-      <c r="CY19" s="10">
-        <v>164324.76065465799</v>
-      </c>
       <c r="CZ19" s="10">
-        <v>72.278218326087199</v>
+        <v>163967.74828949501</v>
       </c>
       <c r="DA19" s="10">
+        <v>72.1211864973384</v>
+      </c>
+      <c r="DB19" s="10">
         <v>2273.5032000000001</v>
       </c>
-      <c r="DB19" s="9"/>
-      <c r="DC19" s="10" t="s">
-        <v>152</v>
-      </c>
+      <c r="DC19" s="9"/>
       <c r="DD19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="DE19" s="11">
-        <v>290970.80377197202</v>
-      </c>
-      <c r="DF19" s="10">
+        <v>146</v>
+      </c>
+      <c r="DE19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF19" s="11">
+        <v>290970.80383695598</v>
+      </c>
+      <c r="DG19" s="10">
         <v>38</v>
       </c>
-      <c r="DG19" s="11">
-        <v>127.98346317834</v>
-      </c>
       <c r="DH19" s="11">
+        <v>127.98346320692301</v>
+      </c>
+      <c r="DI19" s="11">
         <v>2273.5031272479</v>
       </c>
-      <c r="DI19" s="9"/>
-      <c r="DL19" s="8"/>
-      <c r="ER19" s="6">
+      <c r="DJ19" s="9"/>
+      <c r="DM19" s="8"/>
+      <c r="ES19" s="6">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="ES19" s="6">
+      <c r="ET19" s="6">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="ET19" s="6">
+      <c r="EU19" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="EU19" s="6">
+      <c r="EV19" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="EV19" s="18"/>
-      <c r="GF19" s="18"/>
-      <c r="GG19" s="6">
+      <c r="EW19" s="18"/>
+      <c r="GG19" s="18"/>
+      <c r="GH19" s="6">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="GH19" s="6">
+      <c r="GI19" s="6">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="GI19" s="6">
+      <c r="GJ19" s="6">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="GJ19" s="6">
+      <c r="GK19" s="6">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="GK19" s="6">
+      <c r="GL19" s="6">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="GL19" s="6">
-        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="GM19" s="6">
@@ -9530,19 +9580,23 @@
         <v>0</v>
       </c>
       <c r="GP19" s="6">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="GQ19" s="6">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -9553,7 +9607,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N20" s="6">
         <f>N19</f>
@@ -9561,11 +9615,11 @@
       </c>
       <c r="O20" s="6">
         <f t="shared" si="13"/>
-        <v>104.161722332962</v>
+        <v>103.89084418758901</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="0"/>
-        <v>101.3777669011231</v>
+        <v>101.31269548067462</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
@@ -9573,11 +9627,11 @@
       </c>
       <c r="R20" s="6">
         <f t="shared" si="14"/>
-        <v>0.94319909863609053</v>
+        <v>0.94269233262979046</v>
       </c>
       <c r="S20" s="6">
         <f t="shared" si="15"/>
-        <v>0.93799080110449151</v>
+        <v>0.93786906376824553</v>
       </c>
       <c r="T20" s="6">
         <v>400</v>
@@ -9790,112 +9844,114 @@
       </c>
       <c r="CO20" s="9"/>
       <c r="CP20" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="CQ20" s="10">
+        <v>151</v>
+      </c>
+      <c r="CQ20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="CR20" s="10">
         <v>40</v>
       </c>
-      <c r="CR20" s="10">
+      <c r="CS20" s="10">
         <v>3211.0680000000002</v>
       </c>
-      <c r="CS20" s="10">
+      <c r="CT20" s="10">
         <v>167606</v>
       </c>
-      <c r="CT20" s="10">
+      <c r="CU20" s="10">
         <v>52</v>
       </c>
-      <c r="CU20" s="9"/>
-      <c r="CV20" s="10" t="s">
-        <v>157</v>
-      </c>
+      <c r="CV20" s="9"/>
       <c r="CW20" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="CX20" s="10">
+        <v>151</v>
+      </c>
+      <c r="CX20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="CY20" s="10">
         <v>40</v>
       </c>
-      <c r="CY20" s="10">
-        <v>175915.006200604</v>
-      </c>
       <c r="CZ20" s="10">
-        <v>54.783955431838898</v>
+        <v>175254.14681201399</v>
       </c>
       <c r="DA20" s="10">
+        <v>54.578148706914398</v>
+      </c>
+      <c r="DB20" s="10">
         <v>3211.0680000000002</v>
       </c>
-      <c r="DB20" s="9"/>
-      <c r="DC20" s="10" t="s">
-        <v>155</v>
-      </c>
+      <c r="DC20" s="9"/>
       <c r="DD20" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="DE20" s="11">
-        <v>501445.89336199302</v>
-      </c>
-      <c r="DF20" s="10">
+        <v>149</v>
+      </c>
+      <c r="DE20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DF20" s="11">
+        <v>500576.08524531801</v>
+      </c>
+      <c r="DG20" s="10">
         <v>40</v>
       </c>
-      <c r="DG20" s="11">
-        <v>156.161722332962</v>
-      </c>
       <c r="DH20" s="11">
+        <v>155.89084418758901</v>
+      </c>
+      <c r="DI20" s="11">
         <v>3211.0678972458199</v>
       </c>
-      <c r="DI20" s="9"/>
-      <c r="DK20" s="6">
+      <c r="DJ20" s="9"/>
+      <c r="DL20" s="6">
         <v>506139</v>
       </c>
-      <c r="DL20" s="8"/>
-      <c r="DU20" s="6">
+      <c r="DM20" s="8"/>
+      <c r="DV20" s="6">
         <v>891000</v>
       </c>
-      <c r="EA20" s="6">
+      <c r="EB20" s="6">
         <v>450000</v>
       </c>
-      <c r="EG20" s="8">
-        <f>1900000*DH20/SUM($DH$20:$DH$21)</f>
+      <c r="EH20" s="8">
+        <f>1900000*DI20/SUM($DI$20:$DI$21)</f>
         <v>530800.84858127777</v>
       </c>
-      <c r="EH20" s="8">
-        <f>1600000*DH20/SUM(DH$20:DH$21)</f>
+      <c r="EI20" s="8">
+        <f>1600000*DI20/SUM(DI$20:DI$21)</f>
         <v>446990.18827897072</v>
       </c>
-      <c r="ER20" s="6">
+      <c r="ES20" s="6">
         <f t="shared" si="53"/>
         <v>2824930.0368602485</v>
       </c>
-      <c r="ES20" s="6">
+      <c r="ET20" s="6">
         <f t="shared" si="40"/>
         <v>2159814.3843316874</v>
       </c>
-      <c r="ET20" s="6">
+      <c r="EU20" s="6">
         <f t="shared" si="6"/>
         <v>5.410780827112343E-2</v>
       </c>
-      <c r="EU20" s="6">
+      <c r="EV20" s="6">
         <f t="shared" si="7"/>
         <v>672.6156074694627</v>
       </c>
-      <c r="EV20" s="18"/>
-      <c r="EX20" s="6">
+      <c r="EW20" s="18"/>
+      <c r="EY20" s="6">
         <v>6026820</v>
       </c>
-      <c r="FH20" s="6">
+      <c r="FI20" s="6">
         <v>6026820</v>
       </c>
-      <c r="FO20" s="6">
+      <c r="FP20" s="6">
         <v>4200000</v>
       </c>
-      <c r="FU20" s="6">
-        <f>57000000*DH20/SUM($DH$20:$DH$21)</f>
+      <c r="FV20" s="6">
+        <f>57000000*DI20/SUM($DI$20:$DI$21)</f>
         <v>15924025.457438331</v>
       </c>
-      <c r="FV20" s="8">
-        <f>15800000*DH20/SUM($DH$20:$DH$21)</f>
+      <c r="FW20" s="8">
+        <f>15800000*DI20/SUM($DI$20:$DI$21)</f>
         <v>4414028.1092548352</v>
       </c>
-      <c r="FW20" s="8"/>
       <c r="FX20" s="8"/>
       <c r="FY20" s="8"/>
       <c r="FZ20" s="8"/>
@@ -9904,29 +9960,26 @@
       <c r="GC20" s="8"/>
       <c r="GD20" s="8"/>
       <c r="GE20" s="8"/>
-      <c r="GF20" s="18"/>
-      <c r="GG20" s="6">
+      <c r="GF20" s="8"/>
+      <c r="GG20" s="18"/>
+      <c r="GH20" s="6">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="GH20" s="6">
+      <c r="GI20" s="6">
         <f t="shared" si="55"/>
         <v>15924025.457438331</v>
       </c>
-      <c r="GI20" s="6">
+      <c r="GJ20" s="6">
         <f t="shared" si="56"/>
         <v>4414028.1092548352</v>
       </c>
-      <c r="GJ20" s="6">
+      <c r="GK20" s="6">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="GK20" s="6">
+      <c r="GL20" s="6">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="GL20" s="6">
-        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="GM20" s="6">
@@ -9942,19 +9995,23 @@
         <v>0</v>
       </c>
       <c r="GP20" s="6">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="GQ20" s="6">
         <f t="shared" si="60"/>
         <v>36591693.566693164</v>
       </c>
     </row>
-    <row r="21" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>41</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D21" s="10" t="str">
         <f t="shared" si="48"/>
@@ -9965,31 +10022,31 @@
         <v>10741.7185743273</v>
       </c>
       <c r="F21" s="10">
-        <f>IF(Z21&gt;Z20,EU21-EU20,EU20-EU21)</f>
+        <f>IF(Z21&gt;Z20,EV21-EV20,EV20-EV21)</f>
         <v>-249.52405954801765</v>
       </c>
       <c r="G21" s="10">
-        <f>IF(Z21&gt;Z20,DG21-DG20,DG20-DG21)</f>
-        <v>-40.250699212200004</v>
+        <f>IF(Z21&gt;Z20,DH21-DH20,DH20-DH21)</f>
+        <v>-39.961145038335005</v>
       </c>
       <c r="H21" s="10">
-        <f>IF(Z21&gt;Z20,CZ21-CZ20,CZ20-CZ21)</f>
-        <v>-2.3335274313638976</v>
+        <f>IF(Z21&gt;Z20,DA21-DA20,DA20-DA21)</f>
+        <v>-1.8505941199254963</v>
       </c>
       <c r="I21" s="10">
         <f>IF(Z21&gt;Z20,S21-S20,S20-S21)</f>
-        <v>1.8350691868435409E-2</v>
+        <v>1.7939121745275455E-2</v>
       </c>
       <c r="J21" s="10">
         <f>IF(Z21&gt;Z20,R21-R20,R20-R21)</f>
-        <v>5.8179248540326522E-3</v>
+        <v>4.2997488439385778E-3</v>
       </c>
       <c r="K21" s="10">
         <f>IF(Z21&gt;Z20,P21-P20,P20-P21)</f>
-        <v>-37.9171717808361</v>
+        <v>-38.110550918409515</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="52"/>
@@ -9997,11 +10054,11 @@
       </c>
       <c r="O21" s="10">
         <f t="shared" si="13"/>
-        <v>59.911023120761996</v>
+        <v>58.929699149254006</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="0"/>
-        <v>63.460595120286996</v>
+        <v>63.202144562265104</v>
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="1"/>
@@ -10009,11 +10066,11 @@
       </c>
       <c r="R21" s="10">
         <f t="shared" si="14"/>
-        <v>0.94901702349012318</v>
+        <v>0.94699208147372904</v>
       </c>
       <c r="S21" s="6">
         <f t="shared" si="15"/>
-        <v>0.95634149297292692</v>
+        <v>0.95580818551352098</v>
       </c>
       <c r="T21" s="6">
         <v>400</v>
@@ -10248,171 +10305,174 @@
         <v>843637.45484198001</v>
       </c>
       <c r="CP21" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="CQ21" s="10">
+        <v>152</v>
+      </c>
+      <c r="CQ21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="CR21" s="10">
         <v>41</v>
       </c>
-      <c r="CR21" s="10">
+      <c r="CS21" s="10">
         <v>8282.94</v>
       </c>
-      <c r="CS21" s="10">
-        <v>467048</v>
-      </c>
       <c r="CT21" s="10">
-        <v>56</v>
-      </c>
-      <c r="CV21" s="10" t="s">
-        <v>158</v>
+        <v>469199</v>
+      </c>
+      <c r="CU21" s="10">
+        <v>57</v>
       </c>
       <c r="CW21" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="CX21" s="10">
+        <v>152</v>
+      </c>
+      <c r="CX21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="CY21" s="10">
         <v>41</v>
       </c>
-      <c r="CY21" s="10">
-        <v>434443.74810225499</v>
-      </c>
       <c r="CZ21" s="10">
-        <v>52.450428000475</v>
+        <v>436739.17099075299</v>
       </c>
       <c r="DA21" s="10">
+        <v>52.727554586988902</v>
+      </c>
+      <c r="DB21" s="10">
         <v>8282.94</v>
       </c>
-      <c r="DC21" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="DD21" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="DE21" s="11">
-        <v>960084.01912519697</v>
-      </c>
-      <c r="DF21" s="10">
+        <v>152</v>
+      </c>
+      <c r="DE21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="DF21" s="11">
+        <v>960238.71154368599</v>
+      </c>
+      <c r="DG21" s="10">
         <v>41</v>
       </c>
-      <c r="DG21" s="11">
-        <v>115.911023120762</v>
-      </c>
       <c r="DH21" s="11">
+        <v>115.92969914925401</v>
+      </c>
+      <c r="DI21" s="11">
         <v>8282.9397349459196</v>
       </c>
-      <c r="DL21" s="11"/>
-      <c r="DU21" s="10">
+      <c r="DM21" s="11"/>
+      <c r="DV21" s="10">
         <v>216630</v>
       </c>
-      <c r="DX21" s="10">
+      <c r="DY21" s="10">
         <v>700000</v>
       </c>
-      <c r="EA21" s="10">
+      <c r="EB21" s="10">
         <v>394797</v>
       </c>
-      <c r="EG21" s="11">
-        <f>1900000*DH21/SUM($DH$20:$DH$21)</f>
+      <c r="EH21" s="11">
+        <f>1900000*DI21/SUM($DI$20:$DI$21)</f>
         <v>1369199.1514187222</v>
       </c>
-      <c r="EH21" s="11">
-        <f>1600000*DH21/SUM(DH$20:DH$21)</f>
+      <c r="EI21" s="11">
+        <f>1600000*DI21/SUM(DI$20:DI$21)</f>
         <v>1153009.8117210292</v>
       </c>
-      <c r="EN21" s="10">
+      <c r="EO21" s="10">
         <v>750000</v>
       </c>
-      <c r="ER21" s="10">
+      <c r="ES21" s="10">
         <f t="shared" si="53"/>
         <v>4583635.9631397519</v>
       </c>
-      <c r="ES21" s="10">
+      <c r="ET21" s="10">
         <f t="shared" si="40"/>
         <v>3504441.793798313</v>
       </c>
-      <c r="ET21" s="10">
+      <c r="EU21" s="10">
         <f t="shared" si="6"/>
         <v>8.7793500243227837E-2</v>
       </c>
-      <c r="EU21" s="10">
+      <c r="EV21" s="10">
         <f t="shared" si="7"/>
         <v>423.09154792144506</v>
       </c>
-      <c r="FI21" s="10">
+      <c r="FJ21" s="10">
         <v>1987684</v>
       </c>
-      <c r="FK21" s="10">
+      <c r="FL21" s="10">
         <v>6000000</v>
       </c>
-      <c r="FO21" s="10">
+      <c r="FP21" s="10">
         <v>5000000</v>
       </c>
-      <c r="FU21" s="10">
-        <f>57000000*DH21/SUM($DH$20:$DH$21)</f>
+      <c r="FV21" s="10">
+        <f>57000000*DI21/SUM($DI$20:$DI$21)</f>
         <v>41075974.542561665</v>
       </c>
-      <c r="FV21" s="11">
-        <f>15800000*DH21/SUM($DH$20:$DH$21)</f>
+      <c r="FW21" s="11">
+        <f>15800000*DI21/SUM($DI$20:$DI$21)</f>
         <v>11385971.890745163</v>
       </c>
-      <c r="FW21" s="11"/>
       <c r="FX21" s="11"/>
       <c r="FY21" s="11"/>
       <c r="FZ21" s="11"/>
       <c r="GA21" s="11"/>
-      <c r="GB21" s="11">
+      <c r="GB21" s="11"/>
+      <c r="GC21" s="11">
         <v>32500000</v>
       </c>
-      <c r="GC21" s="11"/>
       <c r="GD21" s="11"/>
       <c r="GE21" s="11"/>
-      <c r="GG21" s="10">
+      <c r="GF21" s="11"/>
+      <c r="GH21" s="10">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="GH21" s="10">
+      <c r="GI21" s="10">
         <f t="shared" si="55"/>
         <v>41075974.542561665</v>
       </c>
-      <c r="GI21" s="10">
+      <c r="GJ21" s="10">
         <f t="shared" si="56"/>
         <v>11385971.890745163</v>
       </c>
-      <c r="GJ21" s="10">
+      <c r="GK21" s="10">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="GK21" s="10">
+      <c r="GL21" s="10">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="GL21" s="10">
-        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="GM21" s="10">
         <f t="shared" si="59"/>
-        <v>32500000</v>
+        <v>0</v>
       </c>
       <c r="GN21" s="10">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>32500000</v>
       </c>
       <c r="GO21" s="10">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="GP21" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="GQ21" s="10">
         <f t="shared" si="60"/>
         <v>97949630.433306828</v>
       </c>
     </row>
-    <row r="22" spans="1:198" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:199" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>42</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -10423,7 +10483,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N22" s="6">
         <f t="shared" si="52"/>
@@ -10431,11 +10491,11 @@
       </c>
       <c r="O22" s="6">
         <f t="shared" si="13"/>
-        <v>77.594775257603999</v>
+        <v>78.594775251973999</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="0"/>
-        <v>75.432699492430004</v>
+        <v>76.313165020945007</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="1"/>
@@ -10443,11 +10503,11 @@
       </c>
       <c r="R22" s="6">
         <f t="shared" si="14"/>
-        <v>0.9686530415742105</v>
+        <v>0.97068123176033272</v>
       </c>
       <c r="S22" s="6">
         <f t="shared" si="15"/>
-        <v>0.96426794070094402</v>
+        <v>0.9660536922551507</v>
       </c>
       <c r="T22" s="6">
         <v>400</v>
@@ -10686,146 +10746,145 @@
       </c>
       <c r="CO22" s="9"/>
       <c r="CP22" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="CQ22" s="10">
+        <v>155</v>
+      </c>
+      <c r="CQ22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="CR22" s="10">
         <v>42</v>
       </c>
-      <c r="CR22" s="10">
+      <c r="CS22" s="10">
         <v>6274.0032000000001</v>
       </c>
-      <c r="CS22" s="10">
-        <v>980487</v>
-      </c>
       <c r="CT22" s="10">
-        <v>156</v>
-      </c>
-      <c r="CU22" s="9"/>
-      <c r="CV22" s="10" t="s">
-        <v>161</v>
-      </c>
+        <v>975013</v>
+      </c>
+      <c r="CU22" s="10">
+        <v>155</v>
+      </c>
+      <c r="CV22" s="9"/>
       <c r="CW22" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="CX22" s="10">
+        <v>155</v>
+      </c>
+      <c r="CX22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="CY22" s="10">
         <v>42</v>
       </c>
-      <c r="CY22" s="10">
-        <v>992309.36946934997</v>
-      </c>
       <c r="CZ22" s="10">
-        <v>158.162075765174</v>
+        <v>986785.32589062804</v>
       </c>
       <c r="DA22" s="10">
+        <v>157.28161023102899</v>
+      </c>
+      <c r="DB22" s="10">
         <v>6274.0032000000001</v>
       </c>
-      <c r="DB22" s="9"/>
-      <c r="DC22" s="10" t="s">
-        <v>161</v>
-      </c>
+      <c r="DC22" s="9"/>
       <c r="DD22" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE22" s="11">
-        <v>1465574.3205711099</v>
-      </c>
-      <c r="DF22" s="10">
+        <v>155</v>
+      </c>
+      <c r="DE22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DF22" s="11">
+        <v>1465574.3205357799</v>
+      </c>
+      <c r="DG22" s="10">
         <v>42</v>
       </c>
-      <c r="DG22" s="11">
-        <v>233.594775257604</v>
-      </c>
       <c r="DH22" s="11">
+        <v>233.594775251974</v>
+      </c>
+      <c r="DI22" s="11">
         <v>6274.0029992318996</v>
       </c>
-      <c r="DI22" s="9"/>
-      <c r="DL22" s="8"/>
-      <c r="DM22" s="6">
+      <c r="DJ22" s="9"/>
+      <c r="DM22" s="8"/>
+      <c r="DN22" s="6">
         <v>1300000</v>
       </c>
-      <c r="DP22" s="6">
+      <c r="DQ22" s="6">
         <v>57000</v>
       </c>
-      <c r="DT22" s="6">
+      <c r="DU22" s="6">
         <v>225000</v>
       </c>
-      <c r="DX22" s="6">
+      <c r="DY22" s="6">
         <v>500000</v>
       </c>
-      <c r="DY22" s="6">
+      <c r="DZ22" s="6">
         <v>450000</v>
       </c>
-      <c r="EB22" s="6">
+      <c r="EC22" s="6">
         <v>75000</v>
       </c>
-      <c r="EC22" s="6">
+      <c r="ED22" s="6">
         <v>46359</v>
       </c>
-      <c r="EG22" s="8"/>
-      <c r="EJ22" s="8">
-        <f>1860467*DH22/SUM($DH$22:$DH$23)</f>
+      <c r="EH22" s="8"/>
+      <c r="EK22" s="8">
+        <f>1860467*DI22/SUM($DI$22:$DI$23)</f>
         <v>1164538.6263646039</v>
       </c>
-      <c r="EQ22" s="8">
-        <f>1307519*DH22/(SUM($DH$22:$DH$23))</f>
+      <c r="ER22" s="8">
+        <f>1307519*DI22/(SUM($DI$22:$DI$23))</f>
         <v>818426.97570320801</v>
       </c>
-      <c r="ER22" s="6">
+      <c r="ES22" s="6">
         <f t="shared" si="53"/>
         <v>3817897.6263646036</v>
       </c>
-      <c r="ES22" s="6">
+      <c r="ET22" s="6">
         <f t="shared" si="40"/>
         <v>2918992.7197251893</v>
       </c>
-      <c r="ET22" s="6">
+      <c r="EU22" s="6">
         <f t="shared" si="6"/>
         <v>7.3126792547299035E-2</v>
       </c>
-      <c r="EU22" s="6">
+      <c r="EV22" s="6">
         <f t="shared" si="7"/>
         <v>465.25204404310125</v>
       </c>
-      <c r="EV22" s="18"/>
-      <c r="FK22" s="6">
+      <c r="EW22" s="18"/>
+      <c r="FL22" s="6">
         <v>4500000</v>
       </c>
-      <c r="FL22" s="6">
+      <c r="FM22" s="6">
         <v>9338000</v>
       </c>
-      <c r="FP22" s="6">
+      <c r="FQ22" s="6">
         <v>2150543</v>
       </c>
-      <c r="FQ22" s="6">
+      <c r="FR22" s="6">
         <v>418984</v>
       </c>
-      <c r="GE22" s="6">
-        <f>28000000*DH22/(SUM($DH$22:$DH$23))</f>
+      <c r="GF22" s="6">
+        <f>28000000*DI22/(SUM($DI$22:$DI$23))</f>
         <v>17526288.581420098</v>
       </c>
-      <c r="GF22" s="18"/>
-      <c r="GG22" s="6">
+      <c r="GG22" s="18"/>
+      <c r="GH22" s="6">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="GH22" s="6">
+      <c r="GI22" s="6">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="GI22" s="6">
+      <c r="GJ22" s="6">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="GJ22" s="6">
+      <c r="GK22" s="6">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="GK22" s="6">
+      <c r="GL22" s="6">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="GL22" s="6">
-        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="GM22" s="6">
@@ -10841,19 +10900,23 @@
         <v>0</v>
       </c>
       <c r="GP22" s="6">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="GQ22" s="6">
         <f t="shared" si="60"/>
         <v>16407527</v>
       </c>
     </row>
-    <row r="23" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D23" s="10" t="str">
         <f t="shared" si="48"/>
@@ -10864,31 +10927,31 @@
         <v>139506.79742445261</v>
       </c>
       <c r="F23" s="10">
-        <f>IF(Z23&gt;Z22,EU23-EU22,EU22-EU23)</f>
+        <f>IF(Z23&gt;Z22,EV23-EV22,EV22-EV23)</f>
         <v>-663.39215408144764</v>
       </c>
       <c r="G23" s="10">
-        <f>IF(Z23&gt;Z22,DG23-DG22,DG22-DG23)</f>
-        <v>136.99616131196581</v>
+        <f>IF(Z23&gt;Z22,DH23-DH22,DH22-DH23)</f>
+        <v>136.9381079197627</v>
       </c>
       <c r="H23" s="10">
-        <f>IF(Z23&gt;Z22,CZ23-CZ22,CZ22-CZ23)</f>
-        <v>104.33886670121649</v>
+        <f>IF(Z23&gt;Z22,DA23-DA22,DA22-DA23)</f>
+        <v>103.45840116775119</v>
       </c>
       <c r="I23" s="10">
         <f>IF(Z23&gt;Z22,S23-S22,S22-S23)</f>
-        <v>0.25665246582777823</v>
+        <v>0.25834544015286154</v>
       </c>
       <c r="J23" s="10">
         <f>IF(Z23&gt;Z22,R23-R22,R22-R23)</f>
-        <v>0.26291823908675827</v>
+        <v>0.26485365204484335</v>
       </c>
       <c r="K23" s="10">
         <f>IF(Z23&gt;Z22,P23-P22,P22-P23)</f>
-        <v>32.657294610749297</v>
+        <v>33.479706752011509</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N23" s="10">
         <f t="shared" si="52"/>
@@ -10896,11 +10959,11 @@
       </c>
       <c r="O23" s="10">
         <f t="shared" si="13"/>
-        <v>41.598613945638206</v>
+        <v>41.656667332211299</v>
       </c>
       <c r="P23" s="10">
         <f t="shared" si="0"/>
-        <v>42.775404881680707</v>
+        <v>42.833458268933498</v>
       </c>
       <c r="Q23" s="10">
         <f t="shared" si="1"/>
@@ -10908,11 +10971,11 @@
       </c>
       <c r="R23" s="10">
         <f t="shared" si="14"/>
-        <v>0.70573480248745224</v>
+        <v>0.70582757971548937</v>
       </c>
       <c r="S23" s="6">
         <f t="shared" si="15"/>
-        <v>0.70761547487316578</v>
+        <v>0.70770825210228916</v>
       </c>
       <c r="T23" s="6">
         <v>400</v>
@@ -11147,143 +11210,142 @@
         <v>1400250.0176164401</v>
       </c>
       <c r="CP23" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="CQ23" s="10">
+        <v>158</v>
+      </c>
+      <c r="CQ23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="CR23" s="10">
         <v>43</v>
       </c>
-      <c r="CR23" s="10">
+      <c r="CS23" s="10">
         <v>3749.3447999999999</v>
       </c>
-      <c r="CS23" s="10">
+      <c r="CT23" s="10">
         <v>204892</v>
       </c>
-      <c r="CT23" s="10">
+      <c r="CU23" s="10">
         <v>55</v>
       </c>
-      <c r="CV23" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="CW23" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="CX23" s="10">
+        <v>158</v>
+      </c>
+      <c r="CX23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="CY23" s="10">
         <v>43</v>
       </c>
-      <c r="CY23" s="10">
-        <v>201801.769023261</v>
-      </c>
       <c r="CZ23" s="10">
-        <v>53.823209063957499</v>
+        <v>201801.76902071299</v>
       </c>
       <c r="DA23" s="10">
+        <v>53.823209063277801</v>
+      </c>
+      <c r="DB23" s="10">
         <v>3749.3447999999999</v>
       </c>
-      <c r="DC23" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="DD23" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="DE23" s="11">
-        <v>362181.49929447798</v>
-      </c>
-      <c r="DF23" s="10">
+        <v>158</v>
+      </c>
+      <c r="DE23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="DF23" s="11">
+        <v>362399.16145058302</v>
+      </c>
+      <c r="DG23" s="10">
         <v>43</v>
       </c>
-      <c r="DG23" s="11">
-        <v>96.598613945638206</v>
-      </c>
       <c r="DH23" s="11">
+        <v>96.656667332211299</v>
+      </c>
+      <c r="DI23" s="11">
         <v>3749.3446800209699</v>
       </c>
-      <c r="DL23" s="11"/>
-      <c r="DM23" s="10">
+      <c r="DM23" s="11"/>
+      <c r="DN23" s="10">
         <v>2900000</v>
       </c>
-      <c r="DU23" s="10">
+      <c r="DV23" s="10">
         <v>319670</v>
       </c>
-      <c r="DY23" s="10">
+      <c r="DZ23" s="10">
         <v>580000</v>
       </c>
-      <c r="EB23" s="10">
+      <c r="EC23" s="10">
         <v>100000</v>
       </c>
-      <c r="EC23" s="10">
+      <c r="ED23" s="10">
         <v>265000</v>
       </c>
-      <c r="ED23" s="10">
+      <c r="EE23" s="10">
         <v>674224</v>
       </c>
-      <c r="EJ23" s="11">
-        <f>1860467*DH23/SUM($DH$22:$DH$23)</f>
+      <c r="EK23" s="11">
+        <f>1860467*DI23/SUM($DI$22:$DI$23)</f>
         <v>695928.37363539636</v>
       </c>
-      <c r="EQ23" s="11">
-        <f>1307519*DH23/(SUM($DH$22:$DH$23))</f>
+      <c r="ER23" s="11">
+        <f>1307519*DI23/(SUM($DI$22:$DI$23))</f>
         <v>489092.02429679205</v>
       </c>
-      <c r="ER23" s="10">
+      <c r="ES23" s="10">
         <f t="shared" si="53"/>
         <v>5534822.3736353964</v>
       </c>
-      <c r="ES23" s="10">
+      <c r="ET23" s="10">
         <f t="shared" si="40"/>
         <v>4231676.1198748108</v>
       </c>
-      <c r="ET23" s="10">
+      <c r="EU23" s="10">
         <f t="shared" si="6"/>
         <v>0.10601222115229456</v>
       </c>
-      <c r="EU23" s="10">
+      <c r="EV23" s="10">
         <f t="shared" si="7"/>
         <v>1128.6441981245489</v>
       </c>
-      <c r="EZ23" s="10">
+      <c r="FA23" s="10">
         <v>1500000</v>
       </c>
-      <c r="FH23" s="10">
+      <c r="FI23" s="10">
         <v>1500000</v>
       </c>
-      <c r="FN23" s="10">
+      <c r="FO23" s="10">
         <v>9338000</v>
       </c>
-      <c r="FP23" s="10">
+      <c r="FQ23" s="10">
         <v>2440250</v>
       </c>
-      <c r="FQ23" s="10">
+      <c r="FR23" s="10">
         <v>3121700</v>
       </c>
-      <c r="FR23" s="10">
+      <c r="FS23" s="10">
         <v>2440250</v>
       </c>
-      <c r="GE23" s="10">
-        <f>28000000*DH23/(SUM($DH$22:$DH$23))</f>
+      <c r="GF23" s="10">
+        <f>28000000*DI23/(SUM($DI$22:$DI$23))</f>
         <v>10473711.418579904</v>
       </c>
-      <c r="GG23" s="10">
+      <c r="GH23" s="10">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="GH23" s="10">
+      <c r="GI23" s="10">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="GI23" s="10">
+      <c r="GJ23" s="10">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="GJ23" s="10">
+      <c r="GK23" s="10">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="GK23" s="10">
+      <c r="GL23" s="10">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="GL23" s="10">
-        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="GM23" s="10">
@@ -11299,6 +11361,10 @@
         <v>0</v>
       </c>
       <c r="GP23" s="10">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="GQ23" s="10">
         <f t="shared" si="60"/>
         <v>20340200</v>
       </c>
